--- a/Raspberry_files/SHT1x.xlsx
+++ b/Raspberry_files/SHT1x.xlsx
@@ -10,6 +10,7 @@
     <sheet name="2013-09-25" r:id="rId1" sheetId="1"/>
     <sheet name="2013-09-26" r:id="rId2" sheetId="2"/>
     <sheet name="2013-09-27" r:id="rId3" sheetId="3"/>
+    <sheet name="2013-09-28" r:id="rId4" sheetId="4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -20422,7 +20423,7 @@
   <sheetPr>
     <outlinePr summaryRight="1" summaryBelow="1"/>
   </sheetPr>
-  <dimension ref="A1:C929"/>
+  <dimension ref="A1:C1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1" activeCell="A1"/>
@@ -30654,6 +30655,8278 @@
         <v>57.319316999999998</v>
       </c>
     </row>
+    <row r="930" spans="1:3">
+      <c s="2" r="A930" t="n">
+        <v>41544.780381944445</v>
+      </c>
+      <c r="B930" t="n">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="C930" t="n">
+        <v>57.215510999999999</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3">
+      <c s="2" r="A931" t="n">
+        <v>41544.78121527778</v>
+      </c>
+      <c r="B931" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C931" t="n">
+        <v>57.353706000000003</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3">
+      <c s="2" r="A932" t="n">
+        <v>41544.782060185185</v>
+      </c>
+      <c r="B932" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C932" t="n">
+        <v>57.560223000000001</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3">
+      <c s="2" r="A933" t="n">
+        <v>41544.78289351852</v>
+      </c>
+      <c r="B933" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C933" t="n">
+        <v>57.462353</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3">
+      <c s="2" r="A934" t="n">
+        <v>41544.783738425926</v>
+      </c>
+      <c r="B934" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C934" t="n">
+        <v>56.783340000000003</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3">
+      <c s="2" r="A935" t="n">
+        <v>41544.784583333334</v>
+      </c>
+      <c r="B935" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="C935" t="n">
+        <v>56.405251</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3">
+      <c s="2" r="A936" t="n">
+        <v>41544.78542824074</v>
+      </c>
+      <c r="B936" t="n">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="C936" t="n">
+        <v>56.398223999999999</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3">
+      <c s="2" r="A937" t="n">
+        <v>41544.786261574074</v>
+      </c>
+      <c r="B937" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C937" t="n">
+        <v>56.603458000000003</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3">
+      <c s="2" r="A938" t="n">
+        <v>41544.78710648148</v>
+      </c>
+      <c r="B938" t="n">
+        <v>37.150002000000001</v>
+      </c>
+      <c r="C938" t="n">
+        <v>50.268822</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3">
+      <c s="2" r="A939" t="n">
+        <v>41544.787939814814</v>
+      </c>
+      <c r="B939" t="n">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="C939" t="n">
+        <v>49.980415000000001</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3">
+      <c s="2" r="A940" t="n">
+        <v>41544.78878472222</v>
+      </c>
+      <c r="B940" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C940" t="n">
+        <v>60.515819999999998</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3">
+      <c s="2" r="A941" t="n">
+        <v>41544.789618055554</v>
+      </c>
+      <c r="B941" t="n">
+        <v>37.799999</v>
+      </c>
+      <c r="C941" t="n">
+        <v>60.631934999999999</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3">
+      <c s="2" r="A942" t="n">
+        <v>41544.79046296296</v>
+      </c>
+      <c r="B942" t="n">
+        <v>37.830002</v>
+      </c>
+      <c r="C942" t="n">
+        <v>59.39772</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3">
+      <c s="2" r="A943" t="n">
+        <v>41544.791296296295</v>
+      </c>
+      <c r="B943" t="n">
+        <v>37.759998000000003</v>
+      </c>
+      <c r="C943" t="n">
+        <v>58.876792999999999</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3">
+      <c s="2" r="A944" t="n">
+        <v>41544.7921412037</v>
+      </c>
+      <c r="B944" t="n">
+        <v>37.509998000000003</v>
+      </c>
+      <c r="C944" t="n">
+        <v>58.392474999999997</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3">
+      <c s="2" r="A945" t="n">
+        <v>41544.792974537035</v>
+      </c>
+      <c r="B945" t="n">
+        <v>37.560001</v>
+      </c>
+      <c r="C945" t="n">
+        <v>58.463782999999999</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3">
+      <c s="2" r="A946" t="n">
+        <v>41544.79381944444</v>
+      </c>
+      <c r="B946" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C946" t="n">
+        <v>58.479748000000001</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3">
+      <c s="2" r="A947" t="n">
+        <v>41544.794652777775</v>
+      </c>
+      <c r="B947" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C947" t="n">
+        <v>58.527672000000003</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3">
+      <c s="2" r="A948" t="n">
+        <v>41544.79549768518</v>
+      </c>
+      <c r="B948" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C948" t="n">
+        <v>58.246948000000003</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3">
+      <c s="2" r="A949" t="n">
+        <v>41544.79634259259</v>
+      </c>
+      <c r="B949" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C949" t="n">
+        <v>57.932170999999997</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3">
+      <c s="2" r="A950" t="n">
+        <v>41544.79717592592</v>
+      </c>
+      <c r="B950" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C950" t="n">
+        <v>57.891418000000002</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3">
+      <c s="2" r="A951" t="n">
+        <v>41544.79802083333</v>
+      </c>
+      <c r="B951" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C951" t="n">
+        <v>57.640293</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3">
+      <c s="2" r="A952" t="n">
+        <v>41544.798854166664</v>
+      </c>
+      <c r="B952" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C952" t="n">
+        <v>57.264259000000003</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c s="2" r="A953" t="n">
+        <v>41544.79969907407</v>
+      </c>
+      <c r="B953" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C953" t="n">
+        <v>57.224918000000002</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3">
+      <c s="2" r="A954" t="n">
+        <v>41544.800532407404</v>
+      </c>
+      <c r="B954" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C954" t="n">
+        <v>57.342269999999999</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3">
+      <c s="2" r="A955" t="n">
+        <v>41544.80137731481</v>
+      </c>
+      <c r="B955" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C955" t="n">
+        <v>57.027290000000001</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3">
+      <c s="2" r="A956" t="n">
+        <v>41544.80221064815</v>
+      </c>
+      <c r="B956" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C956" t="n">
+        <v>56.931964999999998</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3">
+      <c s="2" r="A957" t="n">
+        <v>41544.80305555555</v>
+      </c>
+      <c r="B957" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C957" t="n">
+        <v>56.860348000000002</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3">
+      <c s="2" r="A958" t="n">
+        <v>41544.80390046296</v>
+      </c>
+      <c r="B958" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C958" t="n">
+        <v>56.917774000000001</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3">
+      <c s="2" r="A959" t="n">
+        <v>41544.8047337963</v>
+      </c>
+      <c r="B959" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C959" t="n">
+        <v>56.575370999999997</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3">
+      <c s="2" r="A960" t="n">
+        <v>41544.8055787037</v>
+      </c>
+      <c r="B960" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C960" t="n">
+        <v>56.507908</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3">
+      <c s="2" r="A961" t="n">
+        <v>41544.80641203704</v>
+      </c>
+      <c r="B961" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C961" t="n">
+        <v>56.409484999999997</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3">
+      <c s="2" r="A962" t="n">
+        <v>41544.80725694444</v>
+      </c>
+      <c r="B962" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C962" t="n">
+        <v>56.130755999999998</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3">
+      <c s="2" r="A963" t="n">
+        <v>41544.80809027778</v>
+      </c>
+      <c r="B963" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C963" t="n">
+        <v>56.061745000000002</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3">
+      <c s="2" r="A964" t="n">
+        <v>41544.80893518519</v>
+      </c>
+      <c r="B964" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C964" t="n">
+        <v>56.180134000000002</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3">
+      <c s="2" r="A965" t="n">
+        <v>41544.80976851852</v>
+      </c>
+      <c r="B965" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C965" t="n">
+        <v>56.113964000000003</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3">
+      <c s="2" r="A966" t="n">
+        <v>41544.81061342593</v>
+      </c>
+      <c r="B966" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C966" t="n">
+        <v>55.925078999999997</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3">
+      <c s="2" r="A967" t="n">
+        <v>41544.81144675926</v>
+      </c>
+      <c r="B967" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C967" t="n">
+        <v>55.950535000000002</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3">
+      <c s="2" r="A968" t="n">
+        <v>41544.81229166667</v>
+      </c>
+      <c r="B968" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C968" t="n">
+        <v>55.730404</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3">
+      <c s="2" r="A969" t="n">
+        <v>41544.81313657408</v>
+      </c>
+      <c r="B969" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C969" t="n">
+        <v>55.603274999999996</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3">
+      <c s="2" r="A970" t="n">
+        <v>41544.81396990741</v>
+      </c>
+      <c r="B970" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C970" t="n">
+        <v>55.657134999999997</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3">
+      <c s="2" r="A971" t="n">
+        <v>41544.81481481482</v>
+      </c>
+      <c r="B971" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C971" t="n">
+        <v>55.597729000000001</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3">
+      <c s="2" r="A972" t="n">
+        <v>41544.81564814815</v>
+      </c>
+      <c r="B972" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C972" t="n">
+        <v>55.469130999999997</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3">
+      <c s="2" r="A973" t="n">
+        <v>41544.81649305556</v>
+      </c>
+      <c r="B973" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C973" t="n">
+        <v>60.533867000000001</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3">
+      <c s="2" r="A974" t="n">
+        <v>41544.81732638889</v>
+      </c>
+      <c r="B974" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C974" t="n">
+        <v>61.415543</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3">
+      <c s="2" r="A975" t="n">
+        <v>41544.8181712963</v>
+      </c>
+      <c r="B975" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C975" t="n">
+        <v>60.285224999999997</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3">
+      <c s="2" r="A976" t="n">
+        <v>41544.81900462963</v>
+      </c>
+      <c r="B976" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C976" t="n">
+        <v>59.473281999999998</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3">
+      <c s="2" r="A977" t="n">
+        <v>41544.81984953704</v>
+      </c>
+      <c r="B977" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C977" t="n">
+        <v>59.022812000000002</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3">
+      <c s="2" r="A978" t="n">
+        <v>41544.82068287037</v>
+      </c>
+      <c r="B978" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C978" t="n">
+        <v>58.755741</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3">
+      <c s="2" r="A979" t="n">
+        <v>41544.82152777778</v>
+      </c>
+      <c r="B979" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C979" t="n">
+        <v>58.752811000000001</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3">
+      <c s="2" r="A980" t="n">
+        <v>41544.82237268519</v>
+      </c>
+      <c r="B980" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C980" t="n">
+        <v>58.277515000000001</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3">
+      <c s="2" r="A981" t="n">
+        <v>41544.82320601852</v>
+      </c>
+      <c r="B981" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C981" t="n">
+        <v>57.994892</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3">
+      <c s="2" r="A982" t="n">
+        <v>41544.82405092593</v>
+      </c>
+      <c r="B982" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C982" t="n">
+        <v>57.802340999999998</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3">
+      <c s="2" r="A983" t="n">
+        <v>41544.82488425926</v>
+      </c>
+      <c r="B983" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C983" t="n">
+        <v>57.722279</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3">
+      <c s="2" r="A984" t="n">
+        <v>41544.82572916667</v>
+      </c>
+      <c r="B984" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C984" t="n">
+        <v>57.388759999999998</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3">
+      <c s="2" r="A985" t="n">
+        <v>41544.8265625</v>
+      </c>
+      <c r="B985" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C985" t="n">
+        <v>57.163338000000003</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3">
+      <c s="2" r="A986" t="n">
+        <v>41544.82740740741</v>
+      </c>
+      <c r="B986" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C986" t="n">
+        <v>57.028713000000003</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3">
+      <c s="2" r="A987" t="n">
+        <v>41544.82824074074</v>
+      </c>
+      <c r="B987" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C987" t="n">
+        <v>57.081802000000003</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3">
+      <c s="2" r="A988" t="n">
+        <v>41544.82908564815</v>
+      </c>
+      <c r="B988" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C988" t="n">
+        <v>56.89687</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3">
+      <c s="2" r="A989" t="n">
+        <v>41544.82991898148</v>
+      </c>
+      <c r="B989" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C989" t="n">
+        <v>56.672310000000003</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3">
+      <c s="2" r="A990" t="n">
+        <v>41544.83076388889</v>
+      </c>
+      <c r="B990" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C990" t="n">
+        <v>56.666656000000003</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3">
+      <c s="2" r="A991" t="n">
+        <v>41544.831608796296</v>
+      </c>
+      <c r="B991" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C991" t="n">
+        <v>56.663834000000001</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3">
+      <c s="2" r="A992" t="n">
+        <v>41544.832453703704</v>
+      </c>
+      <c r="B992" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C992" t="n">
+        <v>56.316639000000002</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3">
+      <c s="2" r="A993" t="n">
+        <v>41544.833287037036</v>
+      </c>
+      <c r="B993" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C993" t="n">
+        <v>56.247692000000001</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3">
+      <c s="2" r="A994" t="n">
+        <v>41544.834131944444</v>
+      </c>
+      <c r="B994" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C994" t="n">
+        <v>55.880108</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3">
+      <c s="2" r="A995" t="n">
+        <v>41544.834965277776</v>
+      </c>
+      <c r="B995" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C995" t="n">
+        <v>55.809227</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3">
+      <c s="2" r="A996" t="n">
+        <v>41544.835810185185</v>
+      </c>
+      <c r="B996" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C996" t="n">
+        <v>55.798099999999998</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3">
+      <c s="2" r="A997" t="n">
+        <v>41544.836643518516</v>
+      </c>
+      <c r="B997" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C997" t="n">
+        <v>55.951926999999998</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3">
+      <c s="2" r="A998" t="n">
+        <v>41544.837488425925</v>
+      </c>
+      <c r="B998" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C998" t="n">
+        <v>55.947741999999998</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3">
+      <c s="2" r="A999" t="n">
+        <v>41544.838321759256</v>
+      </c>
+      <c r="B999" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C999" t="n">
+        <v>55.485728999999999</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3">
+      <c s="2" r="A1000" t="n">
+        <v>41544.839166666665</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>55.561832000000003</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3">
+      <c s="2" r="A1001" t="n">
+        <v>41544.84</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>63.217624999999998</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3">
+      <c s="2" r="A1002" t="n">
+        <v>41544.840844907405</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>37.580002</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>61.828167000000001</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3">
+      <c s="2" r="A1003" t="n">
+        <v>41544.841678240744</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>37.529998999999997</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>60.875599000000001</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3">
+      <c s="2" r="A1004" t="n">
+        <v>41544.842523148145</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>60.322902999999997</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3">
+      <c s="2" r="A1005" t="n">
+        <v>41544.84336805555</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>60.058909999999997</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3">
+      <c s="2" r="A1006" t="n">
+        <v>41544.844201388885</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>59.646262999999998</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3">
+      <c s="2" r="A1007" t="n">
+        <v>41544.845046296294</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>58.961948</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3">
+      <c s="2" r="A1008" t="n">
+        <v>41544.84587962963</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>58.764530000000001</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3">
+      <c s="2" r="A1009" t="n">
+        <v>41544.846724537034</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>58.659897000000001</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3">
+      <c s="2" r="A1010" t="n">
+        <v>41544.84755787037</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>58.526215000000001</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3">
+      <c s="2" r="A1011" t="n">
+        <v>41544.84840277778</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>57.997779999999999</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3">
+      <c s="2" r="A1012" t="n">
+        <v>41544.84923611111</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>57.771670999999998</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3">
+      <c s="2" r="A1013" t="n">
+        <v>41544.85008101852</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>57.698799000000001</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3">
+      <c s="2" r="A1014" t="n">
+        <v>41544.85091435185</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>57.450248999999999</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3">
+      <c s="2" r="A1015" t="n">
+        <v>41544.85175925926</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>57.133960999999999</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3">
+      <c s="2" r="A1016" t="n">
+        <v>41544.85260416667</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>57.063800999999998</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3">
+      <c s="2" r="A1017" t="n">
+        <v>41544.8534375</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>37.279998999999997</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>57.139113999999999</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3">
+      <c s="2" r="A1018" t="n">
+        <v>41544.85428240741</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>56.899707999999997</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3">
+      <c s="2" r="A1019" t="n">
+        <v>41544.85512731481</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>56.673721</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3">
+      <c s="2" r="A1020" t="n">
+        <v>41544.85596064815</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>56.732658000000001</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3">
+      <c s="2" r="A1021" t="n">
+        <v>41544.85680555556</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>56.632938000000003</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3">
+      <c s="2" r="A1022" t="n">
+        <v>41544.85763888889</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>56.319446999999997</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3">
+      <c s="2" r="A1023" t="n">
+        <v>41544.8584837963</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>56.282871</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3">
+      <c s="2" r="A1024" t="n">
+        <v>41544.85931712963</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>56.274451999999997</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3">
+      <c s="2" r="A1025" t="n">
+        <v>41544.86016203704</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>55.933444999999999</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3">
+      <c s="2" r="A1026" t="n">
+        <v>41544.86099537037</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>55.927867999999997</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3">
+      <c s="2" r="A1027" t="n">
+        <v>41544.86184027778</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>56.111167999999999</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3">
+      <c s="2" r="A1028" t="n">
+        <v>41544.86268518519</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>55.857422</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3">
+      <c s="2" r="A1029" t="n">
+        <v>41544.86351851852</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>55.700710000000001</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3">
+      <c s="2" r="A1030" t="n">
+        <v>41544.86436342593</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>55.724845999999999</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3">
+      <c s="2" r="A1031" t="n">
+        <v>41544.86519675926</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>55.597729000000001</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3">
+      <c s="2" r="A1032" t="n">
+        <v>41544.86604166667</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>55.470516000000003</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3">
+      <c s="2" r="A1033" t="n">
+        <v>41544.866875</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>59.646262999999998</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3">
+      <c s="2" r="A1034" t="n">
+        <v>41544.86771990741</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>62.549297000000003</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3">
+      <c s="2" r="A1035" t="n">
+        <v>41544.86855324074</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>61.229706</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3">
+      <c s="2" r="A1036" t="n">
+        <v>41544.869409722225</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>60.172001000000002</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3">
+      <c s="2" r="A1037" t="n">
+        <v>41544.87024305556</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>59.570205999999999</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3">
+      <c s="2" r="A1038" t="n">
+        <v>41544.871087962965</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>59.274859999999997</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3">
+      <c s="2" r="A1039" t="n">
+        <v>41544.8719212963</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>59.105217000000003</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3">
+      <c s="2" r="A1040" t="n">
+        <v>41544.872766203705</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>58.726723</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3">
+      <c s="2" r="A1041" t="n">
+        <v>41544.873611111114</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>58.197384</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3">
+      <c s="2" r="A1042" t="n">
+        <v>41544.874444444446</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>57.997779999999999</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3">
+      <c s="2" r="A1043" t="n">
+        <v>41544.875289351854</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>37.229999999999997</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>57.742870000000003</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3">
+      <c s="2" r="A1044" t="n">
+        <v>41544.876122685186</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>57.402327999999997</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3">
+      <c s="2" r="A1045" t="n">
+        <v>41544.876967592594</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>57.297896999999999</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3">
+      <c s="2" r="A1046" t="n">
+        <v>41544.877800925926</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>57.226345000000002</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3">
+      <c s="2" r="A1047" t="n">
+        <v>41544.878645833334</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>57.339409000000003</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3">
+      <c s="2" r="A1048" t="n">
+        <v>41544.879479166666</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>57.027290000000001</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3">
+      <c s="2" r="A1049" t="n">
+        <v>41544.880324074074</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>56.836585999999997</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3">
+      <c s="2" r="A1050" t="n">
+        <v>41544.88116898148</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>56.858929000000003</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3">
+      <c s="2" r="A1051" t="n">
+        <v>41544.882002314815</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>56.547279000000003</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3">
+      <c s="2" r="A1052" t="n">
+        <v>41544.88284722222</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>56.322254000000001</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3">
+      <c s="2" r="A1053" t="n">
+        <v>41544.883680555555</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>56.408081000000003</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3">
+      <c s="2" r="A1054" t="n">
+        <v>41544.88452546296</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>56.374329000000003</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3">
+      <c s="2" r="A1055" t="n">
+        <v>41544.885358796295</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>56.029324000000003</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3">
+      <c s="2" r="A1056" t="n">
+        <v>41544.8862037037</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>56.084361999999999</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3">
+      <c s="2" r="A1057" t="n">
+        <v>41544.88704861111</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>55.899619999999999</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3">
+      <c s="2" r="A1058" t="n">
+        <v>41544.88788194444</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>55.741520000000001</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3">
+      <c s="2" r="A1059" t="n">
+        <v>41544.88872685185</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>55.792534000000003</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3">
+      <c s="2" r="A1060" t="n">
+        <v>41544.88957175926</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>55.853245000000001</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3">
+      <c s="2" r="A1061" t="n">
+        <v>41544.89040509259</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>55.323078000000002</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3">
+      <c s="2" r="A1062" t="n">
+        <v>41544.89125</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>37.599997999999999</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>55.695999</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3">
+      <c s="2" r="A1063" t="n">
+        <v>41544.89208333333</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>62.592998999999999</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3">
+      <c s="2" r="A1064" t="n">
+        <v>41544.89292824074</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>61.260249999999999</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3">
+      <c s="2" r="A1065" t="n">
+        <v>41544.89376157407</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>60.460075000000003</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3">
+      <c s="2" r="A1066" t="n">
+        <v>41544.89460648148</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>60.128310999999997</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3">
+      <c s="2" r="A1067" t="n">
+        <v>41544.89543981481</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>59.799118</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3">
+      <c s="2" r="A1068" t="n">
+        <v>41544.89628472222</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>59.211151000000001</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3">
+      <c s="2" r="A1069" t="n">
+        <v>41544.89712962963</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>58.709412</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3">
+      <c s="2" r="A1070" t="n">
+        <v>41544.89796296296</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>58.508816000000003</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3">
+      <c s="2" r="A1071" t="n">
+        <v>41544.89880787037</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>58.526215000000001</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3">
+      <c s="2" r="A1072" t="n">
+        <v>41544.8996412037</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>58.089638000000001</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3">
+      <c s="2" r="A1073" t="n">
+        <v>41544.90048611111</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>57.679614999999998</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3">
+      <c s="2" r="A1074" t="n">
+        <v>41544.90131944444</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>57.609596000000003</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3">
+      <c s="2" r="A1075" t="n">
+        <v>41544.90216435185</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>57.630234000000002</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3">
+      <c s="2" r="A1076" t="n">
+        <v>41544.90299768518</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>57.501671000000002</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3">
+      <c s="2" r="A1077" t="n">
+        <v>41544.90384259259</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>57.188426999999997</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3">
+      <c s="2" r="A1078" t="n">
+        <v>41544.90467592593</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>57.024448</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3">
+      <c s="2" r="A1079" t="n">
+        <v>41544.90552083333</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>57.078957000000003</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3">
+      <c s="2" r="A1080" t="n">
+        <v>41544.90636574074</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>56.892615999999997</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3">
+      <c s="2" r="A1081" t="n">
+        <v>41544.90719907408</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>56.547279000000003</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3">
+      <c s="2" r="A1082" t="n">
+        <v>41544.90804398148</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>56.510727000000003</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3">
+      <c s="2" r="A1083" t="n">
+        <v>41544.90887731482</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>56.562674999999999</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3">
+      <c s="2" r="A1084" t="n">
+        <v>41544.90972222222</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>56.313831</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3">
+      <c s="2" r="A1085" t="n">
+        <v>41544.91056712963</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>56.120959999999997</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3">
+      <c s="2" r="A1086" t="n">
+        <v>41544.91140046297</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>56.242085000000003</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3">
+      <c s="2" r="A1087" t="n">
+        <v>41544.91224537037</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>55.989928999999997</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3">
+      <c s="2" r="A1088" t="n">
+        <v>41544.91307870371</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>55.799487999999997</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3">
+      <c s="2" r="A1089" t="n">
+        <v>41544.91392361111</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>55.792534000000003</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3">
+      <c s="2" r="A1090" t="n">
+        <v>41544.91475694445</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>55.906951999999997</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3">
+      <c s="2" r="A1091" t="n">
+        <v>41544.915601851855</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>55.597729000000001</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3">
+      <c s="2" r="A1092" t="n">
+        <v>41544.91643518519</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>37.610000999999997</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>54.915947000000003</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3">
+      <c s="2" r="A1093" t="n">
+        <v>41544.917280092595</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>37.560001</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>60.025405999999997</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3">
+      <c s="2" r="A1094" t="n">
+        <v>41544.918125</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>37.790000999999997</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>63.549694000000002</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3">
+      <c s="2" r="A1095" t="n">
+        <v>41544.918958333335</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>37.689999</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>61.907950999999997</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3">
+      <c s="2" r="A1096" t="n">
+        <v>41544.919803240744</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>37.599997999999999</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>61.138720999999997</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3">
+      <c s="2" r="A1097" t="n">
+        <v>41544.920648148145</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>60.649867999999998</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3">
+      <c s="2" r="A1098" t="n">
+        <v>41544.921481481484</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>60.286727999999997</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3">
+      <c s="2" r="A1099" t="n">
+        <v>41544.922326388885</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>60.080120000000001</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3">
+      <c s="2" r="A1100" t="n">
+        <v>41544.923159722224</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>59.402222000000002</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3">
+      <c s="2" r="A1101" t="n">
+        <v>41544.92400462963</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>58.993858000000003</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3">
+      <c s="2" r="A1102" t="n">
+        <v>41544.924837962964</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>58.765994999999997</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3">
+      <c s="2" r="A1103" t="n">
+        <v>41544.92568287037</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>58.690387999999999</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3">
+      <c s="2" r="A1104" t="n">
+        <v>41544.926516203705</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>58.220725999999999</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3">
+      <c s="2" r="A1105" t="n">
+        <v>41544.92736111111</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>57.781750000000002</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3">
+      <c s="2" r="A1106" t="n">
+        <v>41544.92820601852</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>57.678176999999998</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3">
+      <c s="2" r="A1107" t="n">
+        <v>41544.92903935185</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>57.666679000000002</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3">
+      <c s="2" r="A1108" t="n">
+        <v>41544.92988425926</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>57.475250000000003</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3">
+      <c s="2" r="A1109" t="n">
+        <v>41544.93071759259</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>57.103149000000002</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3">
+      <c s="2" r="A1110" t="n">
+        <v>41544.9315625</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>56.906798999999999</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3">
+      <c s="2" r="A1111" t="n">
+        <v>41544.93239583333</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>56.990788000000002</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3">
+      <c s="2" r="A1112" t="n">
+        <v>41544.93324074074</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>56.861763000000003</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3">
+      <c s="2" r="A1113" t="n">
+        <v>41544.93408564815</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>56.517769000000001</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3">
+      <c s="2" r="A1114" t="n">
+        <v>41544.93491898148</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>56.415112000000001</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3">
+      <c s="2" r="A1115" t="n">
+        <v>41544.93576388889</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>56.562674999999999</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3">
+      <c s="2" r="A1116" t="n">
+        <v>41544.93659722222</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>56.313831</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3">
+      <c s="2" r="A1117" t="n">
+        <v>41544.93744212963</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>56.060349000000002</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3">
+      <c s="2" r="A1118" t="n">
+        <v>41544.93827546296</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>56.118164</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3">
+      <c s="2" r="A1119" t="n">
+        <v>41544.93912037037</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>56.082962000000002</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3">
+      <c s="2" r="A1120" t="n">
+        <v>41544.9399537037</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>55.803660999999998</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3">
+      <c s="2" r="A1121" t="n">
+        <v>41544.94079861111</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>55.700710000000001</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3">
+      <c s="2" r="A1122" t="n">
+        <v>41544.94164351852</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>55.812454000000002</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3">
+      <c s="2" r="A1123" t="n">
+        <v>41544.94248842593</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>55.539676999999998</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3">
+      <c s="2" r="A1124" t="n">
+        <v>41544.94332175926</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>55.534137999999999</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3">
+      <c s="2" r="A1125" t="n">
+        <v>41544.94416666667</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>63.361870000000003</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3">
+      <c s="2" r="A1126" t="n">
+        <v>41544.945</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>62.543053</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3">
+      <c s="2" r="A1127" t="n">
+        <v>41544.94584490741</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>61.202784999999999</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3">
+      <c s="2" r="A1128" t="n">
+        <v>41544.94668981482</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>60.172001000000002</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3">
+      <c s="2" r="A1129" t="n">
+        <v>41544.94752314815</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>37.509998000000003</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>59.604984000000002</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3">
+      <c s="2" r="A1130" t="n">
+        <v>41544.94836805556</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>59.371872000000003</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3">
+      <c s="2" r="A1131" t="n">
+        <v>41544.94920138889</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>59.135620000000003</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3">
+      <c s="2" r="A1132" t="n">
+        <v>41544.9500462963</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>59.003689000000001</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3">
+      <c s="2" r="A1133" t="n">
+        <v>41544.95087962963</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>58.380836000000002</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3">
+      <c s="2" r="A1134" t="n">
+        <v>41544.95172453704</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>58.126033999999997</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3">
+      <c s="2" r="A1135" t="n">
+        <v>41544.952569444446</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>58.053241999999997</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3">
+      <c s="2" r="A1136" t="n">
+        <v>41544.95340277778</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>57.919173999999998</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3">
+      <c s="2" r="A1137" t="n">
+        <v>41544.954247685186</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>57.482413999999999</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3">
+      <c s="2" r="A1138" t="n">
+        <v>41544.95508101852</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>57.317233999999999</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3">
+      <c s="2" r="A1139" t="n">
+        <v>41544.955925925926</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>57.339409000000003</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3">
+      <c s="2" r="A1140" t="n">
+        <v>41544.956770833334</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>57.335121000000001</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3">
+      <c s="2" r="A1141" t="n">
+        <v>41544.957604166666</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>56.624625999999999</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3">
+      <c s="2" r="A1142" t="n">
+        <v>41544.958449074074</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>37.650002000000001</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>56.124915999999999</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3">
+      <c s="2" r="A1143" t="n">
+        <v>41544.959282407406</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>55.872742000000002</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3">
+      <c s="2" r="A1144" t="n">
+        <v>41544.960127314815</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>37.549999</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>56.143349000000001</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3">
+      <c s="2" r="A1145" t="n">
+        <v>41544.960960648146</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>56.347599000000002</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3">
+      <c s="2" r="A1146" t="n">
+        <v>41544.961805555555</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>37.279998999999997</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>56.558444999999999</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3">
+      <c s="2" r="A1147" t="n">
+        <v>41544.96265046296</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>37.139999000000003</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>56.247790999999999</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3">
+      <c s="2" r="A1148" t="n">
+        <v>41544.963483796295</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>55.628822</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3">
+      <c s="2" r="A1149" t="n">
+        <v>41544.9643287037</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>55.283638000000003</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3">
+      <c s="2" r="A1150" t="n">
+        <v>41544.965162037035</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>61.177376000000002</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3">
+      <c s="2" r="A1151" t="n">
+        <v>41544.96600694444</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>62.214354999999998</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3">
+      <c s="2" r="A1152" t="n">
+        <v>41544.966840277775</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>61.130611000000002</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3">
+      <c s="2" r="A1153" t="n">
+        <v>41544.967685185184</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>60.493186999999999</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3">
+      <c s="2" r="A1154" t="n">
+        <v>41544.968518518515</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>37.209999000000003</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>60.036448999999998</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3">
+      <c s="2" r="A1155" t="n">
+        <v>41544.969363425924</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>59.329673999999997</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3">
+      <c s="2" r="A1156" t="n">
+        <v>41544.97019675926</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>58.763064999999997</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3">
+      <c s="2" r="A1157" t="n">
+        <v>41544.971041666664</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>58.532051000000003</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3">
+      <c s="2" r="A1158" t="n">
+        <v>41544.971875</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>58.427360999999998</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3">
+      <c s="2" r="A1159" t="n">
+        <v>41544.972719907404</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>37.259998000000003</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>58.324092999999998</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3">
+      <c s="2" r="A1160" t="n">
+        <v>41544.97355324074</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>57.796576999999999</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3">
+      <c s="2" r="A1161" t="n">
+        <v>41544.97439814815</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>57.510272999999998</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3">
+      <c s="2" r="A1162" t="n">
+        <v>41544.97523148148</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>57.469517000000003</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3">
+      <c s="2" r="A1163" t="n">
+        <v>41544.97607638889</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>57.520916</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3">
+      <c s="2" r="A1164" t="n">
+        <v>41544.97692129629</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>57.209229000000001</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3">
+      <c s="2" r="A1165" t="n">
+        <v>41544.97775462963</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>56.955696000000003</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3">
+      <c s="2" r="A1166" t="n">
+        <v>41544.97859953704</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>56.791556999999997</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3">
+      <c s="2" r="A1167" t="n">
+        <v>41544.97943287037</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>56.815334</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3">
+      <c s="2" r="A1168" t="n">
+        <v>41544.98027777778</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>56.659595000000003</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3">
+      <c s="2" r="A1169" t="n">
+        <v>41544.98111111111</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>56.311024000000003</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3">
+      <c s="2" r="A1170" t="n">
+        <v>41544.98195601852</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>56.273048000000003</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3">
+      <c s="2" r="A1171" t="n">
+        <v>41544.98278935185</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>37.240001999999997</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>56.423538000000001</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3">
+      <c s="2" r="A1172" t="n">
+        <v>41544.98363425926</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>56.17313</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3">
+      <c s="2" r="A1173" t="n">
+        <v>41544.98446759259</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>55.891258000000001</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3">
+      <c s="2" r="A1174" t="n">
+        <v>41544.9853125</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>55.824981999999999</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3">
+      <c s="2" r="A1175" t="n">
+        <v>41544.98614583333</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>37.259998000000003</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>55.940764999999999</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3">
+      <c s="2" r="A1176" t="n">
+        <v>41544.98699074074</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>37.240001999999997</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>55.937976999999997</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3">
+      <c s="2" r="A1177" t="n">
+        <v>41544.98782407407</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>55.593570999999997</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3">
+      <c s="2" r="A1178" t="n">
+        <v>41544.98866898148</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>55.525829000000002</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3">
+      <c s="2" r="A1179" t="n">
+        <v>41544.98950231481</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>37.240001999999997</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>55.581093000000003</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3">
+      <c s="2" r="A1180" t="n">
+        <v>41544.99034722222</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>55.360537999999998</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3">
+      <c s="2" r="A1181" t="n">
+        <v>41544.99118055555</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>55.823588999999998</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3">
+      <c s="2" r="A1182" t="n">
+        <v>41544.99202546296</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>62.585247000000003</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3">
+      <c s="2" r="A1183" t="n">
+        <v>41544.99285879629</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>61.037574999999997</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3">
+      <c s="2" r="A1184" t="n">
+        <v>41544.9937037037</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>60.333503999999998</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3">
+      <c s="2" r="A1185" t="n">
+        <v>41544.99453703704</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>37.240001999999997</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>59.850658000000003</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3">
+      <c s="2" r="A1186" t="n">
+        <v>41544.99538194444</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>59.137093</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3">
+      <c s="2" r="A1187" t="n">
+        <v>41544.99621527778</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>58.57132</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3">
+      <c s="2" r="A1188" t="n">
+        <v>41544.99706018518</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>58.280422000000002</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3">
+      <c s="2" r="A1189" t="n">
+        <v>41544.99789351852</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>58.147945</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3">
+      <c s="2" r="A1190" t="n">
+        <v>41544.99873842593</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>37.279998999999997</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>58.102851999999999</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3">
+      <c s="2" r="A1191" t="n">
+        <v>41544.99957175926</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>37.240001999999997</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>57.968868000000001</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryRight="1" summaryBelow="1"/>
+  </sheetPr>
+  <dimension ref="A1:C488"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1" activeCell="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col max="1" collapsed="0" width="9.10" min="1"/>
+    <col max="3" collapsed="0" width="9.10" min="3"/>
+    <col max="2" collapsed="0" width="9.10" min="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c s="1" r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c s="2" r="A2" t="n">
+        <v>41545.00041666667</v>
+      </c>
+      <c r="B2" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C2" t="n">
+        <v>57.504539000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c s="2" r="A3" t="n">
+        <v>41545.00125</v>
+      </c>
+      <c r="B3" t="n">
+        <v>37.509998000000003</v>
+      </c>
+      <c r="C3" t="n">
+        <v>57.461703999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c s="2" r="A4" t="n">
+        <v>41545.00209490741</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57.324375000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c s="2" r="A5" t="n">
+        <v>41545.00292824074</v>
+      </c>
+      <c r="B5" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57.409484999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c s="2" r="A6" t="n">
+        <v>41545.00377314815</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>57.282187999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c s="2" r="A7" t="n">
+        <v>41545.00460648148</v>
+      </c>
+      <c r="B7" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>56.936222000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c s="2" r="A8" t="n">
+        <v>41545.00545138889</v>
+      </c>
+      <c r="B8" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C8" t="n">
+        <v>56.867435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c s="2" r="A9" t="n">
+        <v>41545.00628472222</v>
+      </c>
+      <c r="B9" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>56.919193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c s="2" r="A10" t="n">
+        <v>41545.00712962963</v>
+      </c>
+      <c r="B10" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>56.794387999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c s="2" r="A11" t="n">
+        <v>41545.00797453704</v>
+      </c>
+      <c r="B11" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>56.478386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c s="2" r="A12" t="n">
+        <v>41545.00880787037</v>
+      </c>
+      <c r="B12" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>56.471347999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c s="2" r="A13" t="n">
+        <v>41545.00965277778</v>
+      </c>
+      <c r="B13" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C13" t="n">
+        <v>56.469940000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c s="2" r="A14" t="n">
+        <v>41545.01048611111</v>
+      </c>
+      <c r="B14" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C14" t="n">
+        <v>56.094150999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c s="2" r="A15" t="n">
+        <v>41545.01133101852</v>
+      </c>
+      <c r="B15" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>56.057552000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c s="2" r="A16" t="n">
+        <v>41545.01216435185</v>
+      </c>
+      <c r="B16" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>56.174529999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c s="2" r="A17" t="n">
+        <v>41545.01300925926</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C17" t="n">
+        <v>55.954720000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c s="2" r="A18" t="n">
+        <v>41545.01384259259</v>
+      </c>
+      <c r="B18" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C18" t="n">
+        <v>55.731791999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c s="2" r="A19" t="n">
+        <v>41545.0146875</v>
+      </c>
+      <c r="B19" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C19" t="n">
+        <v>55.757300999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c s="2" r="A20" t="n">
+        <v>41545.01553240741</v>
+      </c>
+      <c r="B20" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>55.784187000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c s="2" r="A21" t="n">
+        <v>41545.01636574074</v>
+      </c>
+      <c r="B21" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>55.535522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c s="2" r="A22" t="n">
+        <v>41545.01721064815</v>
+      </c>
+      <c r="B22" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C22" t="n">
+        <v>55.500259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c s="2" r="A23" t="n">
+        <v>41545.018055555556</v>
+      </c>
+      <c r="B23" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>61.289642000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c s="2" r="A24" t="n">
+        <v>41545.01888888889</v>
+      </c>
+      <c r="B24" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>62.131526999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c s="2" r="A25" t="n">
+        <v>41545.019733796296</v>
+      </c>
+      <c r="B25" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C25" t="n">
+        <v>60.741669000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c s="2" r="A26" t="n">
+        <v>41545.02056712963</v>
+      </c>
+      <c r="B26" t="n">
+        <v>37.540000999999997</v>
+      </c>
+      <c r="C26" t="n">
+        <v>59.768386999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c s="2" r="A27" t="n">
+        <v>41545.02141203704</v>
+      </c>
+      <c r="B27" t="n">
+        <v>37.529998999999997</v>
+      </c>
+      <c r="C27" t="n">
+        <v>59.289634999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c s="2" r="A28" t="n">
+        <v>41545.02224537037</v>
+      </c>
+      <c r="B28" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C28" t="n">
+        <v>59.092491000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c s="2" r="A29" t="n">
+        <v>41545.02309027778</v>
+      </c>
+      <c r="B29" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>58.919753999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c s="2" r="A30" t="n">
+        <v>41545.023935185185</v>
+      </c>
+      <c r="B30" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C30" t="n">
+        <v>58.749881999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c s="2" r="A31" t="n">
+        <v>41545.02476851852</v>
+      </c>
+      <c r="B31" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C31" t="n">
+        <v>58.345908999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c s="2" r="A32" t="n">
+        <v>41545.025613425925</v>
+      </c>
+      <c r="B32" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C32" t="n">
+        <v>57.907294999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c s="2" r="A33" t="n">
+        <v>41545.02644675926</v>
+      </c>
+      <c r="B33" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>57.740985999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c s="2" r="A34" t="n">
+        <v>41545.027291666665</v>
+      </c>
+      <c r="B34" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>57.732353000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c s="2" r="A35" t="n">
+        <v>41545.028125</v>
+      </c>
+      <c r="B35" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>57.570267000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c s="2" r="A36" t="n">
+        <v>41545.028969907406</v>
+      </c>
+      <c r="B36" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C36" t="n">
+        <v>57.104571999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c s="2" r="A37" t="n">
+        <v>41545.02980324074</v>
+      </c>
+      <c r="B37" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C37" t="n">
+        <v>56.908217999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c s="2" r="A38" t="n">
+        <v>41545.030648148146</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>56.930546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c s="2" r="A39" t="n">
+        <v>41545.031493055554</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>57.014496000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c s="2" r="A40" t="n">
+        <v>41545.032326388886</v>
+      </c>
+      <c r="B40" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C40" t="n">
+        <v>56.795802999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c s="2" r="A41" t="n">
+        <v>41545.033171296294</v>
+      </c>
+      <c r="B41" t="n">
+        <v>37.610000999999997</v>
+      </c>
+      <c r="C41" t="n">
+        <v>56.151744999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c s="2" r="A42" t="n">
+        <v>41545.034004629626</v>
+      </c>
+      <c r="B42" t="n">
+        <v>37.709999000000003</v>
+      </c>
+      <c r="C42" t="n">
+        <v>55.711269000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c s="2" r="A43" t="n">
+        <v>41545.034849537034</v>
+      </c>
+      <c r="B43" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="C43" t="n">
+        <v>55.609589</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c s="2" r="A44" t="n">
+        <v>41545.03568287037</v>
+      </c>
+      <c r="B44" t="n">
+        <v>37.580002</v>
+      </c>
+      <c r="C44" t="n">
+        <v>55.693226000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c s="2" r="A45" t="n">
+        <v>41545.036527777775</v>
+      </c>
+      <c r="B45" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C45" t="n">
+        <v>55.807834999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c s="2" r="A46" t="n">
+        <v>41545.03736111111</v>
+      </c>
+      <c r="B46" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C46" t="n">
+        <v>56.049168000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c s="2" r="A47" t="n">
+        <v>41545.03820601852</v>
+      </c>
+      <c r="B47" t="n">
+        <v>37.259998000000003</v>
+      </c>
+      <c r="C47" t="n">
+        <v>56.232264999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c s="2" r="A48" t="n">
+        <v>41545.039039351854</v>
+      </c>
+      <c r="B48" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C48" t="n">
+        <v>55.829158999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c s="2" r="A49" t="n">
+        <v>41545.03988425926</v>
+      </c>
+      <c r="B49" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="C49" t="n">
+        <v>55.171284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c s="2" r="A50" t="n">
+        <v>41545.04072916666</v>
+      </c>
+      <c r="B50" t="n">
+        <v>37.610000999999997</v>
+      </c>
+      <c r="C50" t="n">
+        <v>58.214787000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c s="2" r="A51" t="n">
+        <v>41545.0415625</v>
+      </c>
+      <c r="B51" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="C51" t="n">
+        <v>63.718890999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c s="2" r="A52" t="n">
+        <v>41545.04240740741</v>
+      </c>
+      <c r="B52" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C52" t="n">
+        <v>61.875546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c s="2" r="A53" t="n">
+        <v>41545.04324074074</v>
+      </c>
+      <c r="B53" t="n">
+        <v>37.560001</v>
+      </c>
+      <c r="C53" t="n">
+        <v>61.227210999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c s="2" r="A54" t="n">
+        <v>41545.04408564815</v>
+      </c>
+      <c r="B54" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C54" t="n">
+        <v>60.646842999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c s="2" r="A55" t="n">
+        <v>41545.04491898148</v>
+      </c>
+      <c r="B55" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>60.410339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c s="2" r="A56" t="n">
+        <v>41545.04576388889</v>
+      </c>
+      <c r="B56" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C56" t="n">
+        <v>60.116318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c s="2" r="A57" t="n">
+        <v>41545.04659722222</v>
+      </c>
+      <c r="B57" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C57" t="n">
+        <v>59.529494999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c s="2" r="A58" t="n">
+        <v>41545.04744212963</v>
+      </c>
+      <c r="B58" t="n">
+        <v>37.509998000000003</v>
+      </c>
+      <c r="C58" t="n">
+        <v>58.967827</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c s="2" r="A59" t="n">
+        <v>41545.04827546296</v>
+      </c>
+      <c r="B59" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C59" t="n">
+        <v>58.706485999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c s="2" r="A60" t="n">
+        <v>41545.04912037037</v>
+      </c>
+      <c r="B60" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58.664287999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c s="2" r="A61" t="n">
+        <v>41545.04996527778</v>
+      </c>
+      <c r="B61" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C61" t="n">
+        <v>58.587223000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c s="2" r="A62" t="n">
+        <v>41545.05079861111</v>
+      </c>
+      <c r="B62" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C62" t="n">
+        <v>58.124583999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c s="2" r="A63" t="n">
+        <v>41545.05164351852</v>
+      </c>
+      <c r="B63" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C63" t="n">
+        <v>57.77599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c s="2" r="A64" t="n">
+        <v>41545.05248842593</v>
+      </c>
+      <c r="B64" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C64" t="n">
+        <v>57.643166000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c s="2" r="A65" t="n">
+        <v>41545.05332175926</v>
+      </c>
+      <c r="B65" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C65" t="n">
+        <v>57.663803000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c s="2" r="A66" t="n">
+        <v>41545.05416666667</v>
+      </c>
+      <c r="B66" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C66" t="n">
+        <v>57.563091</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c s="2" r="A67" t="n">
+        <v>41545.055</v>
+      </c>
+      <c r="B67" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C67" t="n">
+        <v>57.160488000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c s="2" r="A68" t="n">
+        <v>41545.05584490741</v>
+      </c>
+      <c r="B68" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C68" t="n">
+        <v>56.968474999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c s="2" r="A69" t="n">
+        <v>41545.05667824074</v>
+      </c>
+      <c r="B69" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C69" t="n">
+        <v>57.021605999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c s="2" r="A70" t="n">
+        <v>41545.05752314815</v>
+      </c>
+      <c r="B70" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C70" t="n">
+        <v>57.015918999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c s="2" r="A71" t="n">
+        <v>41545.05835648148</v>
+      </c>
+      <c r="B71" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C71" t="n">
+        <v>56.575370999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c s="2" r="A72" t="n">
+        <v>41545.05920138889</v>
+      </c>
+      <c r="B72" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C72" t="n">
+        <v>56.635761000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c s="2" r="A73" t="n">
+        <v>41545.06003472222</v>
+      </c>
+      <c r="B73" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C73" t="n">
+        <v>56.625877000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c s="2" r="A74" t="n">
+        <v>41545.06087962963</v>
+      </c>
+      <c r="B74" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C74" t="n">
+        <v>56.378543999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c s="2" r="A75" t="n">
+        <v>41545.06172453704</v>
+      </c>
+      <c r="B75" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C75" t="n">
+        <v>56.187137999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c s="2" r="A76" t="n">
+        <v>41545.06255787037</v>
+      </c>
+      <c r="B76" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C76" t="n">
+        <v>56.211117000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c s="2" r="A77" t="n">
+        <v>41545.06340277778</v>
+      </c>
+      <c r="B77" t="n">
+        <v>37.279998999999997</v>
+      </c>
+      <c r="C77" t="n">
+        <v>56.267437000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c s="2" r="A78" t="n">
+        <v>41545.06423611111</v>
+      </c>
+      <c r="B78" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C78" t="n">
+        <v>55.926471999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c s="2" r="A79" t="n">
+        <v>41545.06508101852</v>
+      </c>
+      <c r="B79" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>55.826374000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c s="2" r="A80" t="n">
+        <v>41545.06591435185</v>
+      </c>
+      <c r="B80" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C80" t="n">
+        <v>55.882896000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c s="2" r="A81" t="n">
+        <v>41545.06675925926</v>
+      </c>
+      <c r="B81" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C81" t="n">
+        <v>55.727623000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c s="2" r="A82" t="n">
+        <v>41545.06760416667</v>
+      </c>
+      <c r="B82" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C82" t="n">
+        <v>55.535522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c s="2" r="A83" t="n">
+        <v>41545.0684375</v>
+      </c>
+      <c r="B83" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C83" t="n">
+        <v>55.562477000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c s="2" r="A84" t="n">
+        <v>41545.06928240741</v>
+      </c>
+      <c r="B84" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C84" t="n">
+        <v>55.279502999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c s="2" r="A85" t="n">
+        <v>41545.07011574074</v>
+      </c>
+      <c r="B85" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>60.577559999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c s="2" r="A86" t="n">
+        <v>41545.07096064815</v>
+      </c>
+      <c r="B86" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C86" t="n">
+        <v>61.396320000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c s="2" r="A87" t="n">
+        <v>41545.07179398148</v>
+      </c>
+      <c r="B87" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>60.472115000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c s="2" r="A88" t="n">
+        <v>41545.07263888889</v>
+      </c>
+      <c r="B88" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>59.867080999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c s="2" r="A89" t="n">
+        <v>41545.07347222222</v>
+      </c>
+      <c r="B89" t="n">
+        <v>37.509998000000003</v>
+      </c>
+      <c r="C89" t="n">
+        <v>59.095435999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c s="2" r="A90" t="n">
+        <v>41545.07431712963</v>
+      </c>
+      <c r="B90" t="n">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="C90" t="n">
+        <v>58.617901000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c s="2" r="A91" t="n">
+        <v>41545.075162037036</v>
+      </c>
+      <c r="B91" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>58.479748000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c s="2" r="A92" t="n">
+        <v>41545.07599537037</v>
+      </c>
+      <c r="B92" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C92" t="n">
+        <v>58.433188999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c s="2" r="A93" t="n">
+        <v>41545.076840277776</v>
+      </c>
+      <c r="B93" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C93" t="n">
+        <v>58.059029000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c s="2" r="A94" t="n">
+        <v>41545.077685185184</v>
+      </c>
+      <c r="B94" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C94" t="n">
+        <v>57.679614999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c s="2" r="A95" t="n">
+        <v>41545.07853009259</v>
+      </c>
+      <c r="B95" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C95" t="n">
+        <v>57.577441999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c s="2" r="A96" t="n">
+        <v>41545.079363425924</v>
+      </c>
+      <c r="B96" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>57.599544999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c s="2" r="A97" t="n">
+        <v>41545.08020833333</v>
+      </c>
+      <c r="B97" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C97" t="n">
+        <v>57.408054</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c s="2" r="A98" t="n">
+        <v>41545.08105324074</v>
+      </c>
+      <c r="B98" t="n">
+        <v>37.549999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>56.822707999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c s="2" r="A99" t="n">
+        <v>41545.08188657407</v>
+      </c>
+      <c r="B99" t="n">
+        <v>37.709999000000003</v>
+      </c>
+      <c r="C99" t="n">
+        <v>56.262974</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c s="2" r="A100" t="n">
+        <v>41545.08273148148</v>
+      </c>
+      <c r="B100" t="n">
+        <v>37.650002000000001</v>
+      </c>
+      <c r="C100" t="n">
+        <v>56.157341000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c s="2" r="A101" t="n">
+        <v>41545.08357638889</v>
+      </c>
+      <c r="B101" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C101" t="n">
+        <v>56.091354000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c s="2" r="A102" t="n">
+        <v>41545.0844212963</v>
+      </c>
+      <c r="B102" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C102" t="n">
+        <v>56.237876999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c s="2" r="A103" t="n">
+        <v>41545.08525462963</v>
+      </c>
+      <c r="B103" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C103" t="n">
+        <v>56.628703999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c s="2" r="A104" t="n">
+        <v>41545.08609953704</v>
+      </c>
+      <c r="B104" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C104" t="n">
+        <v>56.472754999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c s="2" r="A105" t="n">
+        <v>41545.08694444445</v>
+      </c>
+      <c r="B105" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C105" t="n">
+        <v>56.250495999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c s="2" r="A106" t="n">
+        <v>41545.08777777778</v>
+      </c>
+      <c r="B106" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C106" t="n">
+        <v>56.243484000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c s="2" r="A107" t="n">
+        <v>41545.08862268519</v>
+      </c>
+      <c r="B107" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>56.053359999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c s="2" r="A108" t="n">
+        <v>41545.08945601852</v>
+      </c>
+      <c r="B108" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C108" t="n">
+        <v>55.800879999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c s="2" r="A109" t="n">
+        <v>41545.09030092593</v>
+      </c>
+      <c r="B109" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C109" t="n">
+        <v>55.795315000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c s="2" r="A110" t="n">
+        <v>41545.09113425926</v>
+      </c>
+      <c r="B110" t="n">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="C110" t="n">
+        <v>55.942162000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c s="2" r="A111" t="n">
+        <v>41545.09197916667</v>
+      </c>
+      <c r="B111" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C111" t="n">
+        <v>55.601891000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c s="2" r="A112" t="n">
+        <v>41545.0928125</v>
+      </c>
+      <c r="B112" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C112" t="n">
+        <v>55.566631000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c s="2" r="A113" t="n">
+        <v>41545.09365740741</v>
+      </c>
+      <c r="B113" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C113" t="n">
+        <v>55.588023999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c s="2" r="A114" t="n">
+        <v>41545.094502314816</v>
+      </c>
+      <c r="B114" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C114" t="n">
+        <v>55.370204999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c s="2" r="A115" t="n">
+        <v>41545.09533564815</v>
+      </c>
+      <c r="B115" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C115" t="n">
+        <v>55.799487999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c s="2" r="A116" t="n">
+        <v>41545.096180555556</v>
+      </c>
+      <c r="B116" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C116" t="n">
+        <v>62.905430000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c s="2" r="A117" t="n">
+        <v>41545.09701388889</v>
+      </c>
+      <c r="B117" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C117" t="n">
+        <v>61.424731999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c s="2" r="A118" t="n">
+        <v>41545.097858796296</v>
+      </c>
+      <c r="B118" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C118" t="n">
+        <v>60.688873000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c s="2" r="A119" t="n">
+        <v>41545.09869212963</v>
+      </c>
+      <c r="B119" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>60.028694000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c s="2" r="A120" t="n">
+        <v>41545.09953703704</v>
+      </c>
+      <c r="B120" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C120" t="n">
+        <v>59.188133000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c s="2" r="A121" t="n">
+        <v>41545.10037037037</v>
+      </c>
+      <c r="B121" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C121" t="n">
+        <v>58.709412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c s="2" r="A122" t="n">
+        <v>41545.10121527778</v>
+      </c>
+      <c r="B122" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>58.511733999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c s="2" r="A123" t="n">
+        <v>41545.10204861111</v>
+      </c>
+      <c r="B123" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>58.373558000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c s="2" r="A124" t="n">
+        <v>41545.10289351852</v>
+      </c>
+      <c r="B124" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>58.329909999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c s="2" r="A125" t="n">
+        <v>41545.103738425925</v>
+      </c>
+      <c r="B125" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C125" t="n">
+        <v>57.800899999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c s="2" r="A126" t="n">
+        <v>41545.10457175926</v>
+      </c>
+      <c r="B126" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C126" t="n">
+        <v>57.457408999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c s="2" r="A127" t="n">
+        <v>41545.105416666665</v>
+      </c>
+      <c r="B127" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>57.290756000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c s="2" r="A128" t="n">
+        <v>41545.10625</v>
+      </c>
+      <c r="B128" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>57.312945999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c s="2" r="A129" t="n">
+        <v>41545.107094907406</v>
+      </c>
+      <c r="B129" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C129" t="n">
+        <v>57.275047000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c s="2" r="A130" t="n">
+        <v>41545.10792824074</v>
+      </c>
+      <c r="B130" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>56.808548000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c s="2" r="A131" t="n">
+        <v>41545.108773148146</v>
+      </c>
+      <c r="B131" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>56.614745999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c s="2" r="A132" t="n">
+        <v>41545.109606481485</v>
+      </c>
+      <c r="B132" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C132" t="n">
+        <v>56.575370999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c s="2" r="A133" t="n">
+        <v>41545.110451388886</v>
+      </c>
+      <c r="B133" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>56.507908</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c s="2" r="A134" t="n">
+        <v>41545.111284722225</v>
+      </c>
+      <c r="B134" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>56.006680000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c s="2" r="A135" t="n">
+        <v>41545.112129629626</v>
+      </c>
+      <c r="B135" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>55.909374</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c s="2" r="A136" t="n">
+        <v>41545.112974537034</v>
+      </c>
+      <c r="B136" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C136" t="n">
+        <v>55.994118</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c s="2" r="A137" t="n">
+        <v>41545.11380787037</v>
+      </c>
+      <c r="B137" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C137" t="n">
+        <v>56.142150999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c s="2" r="A138" t="n">
+        <v>41545.114652777775</v>
+      </c>
+      <c r="B138" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C138" t="n">
+        <v>55.925078999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c s="2" r="A139" t="n">
+        <v>41545.11548611111</v>
+      </c>
+      <c r="B139" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C139" t="n">
+        <v>55.671016999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c s="2" r="A140" t="n">
+        <v>41545.11633101852</v>
+      </c>
+      <c r="B140" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>55.726233999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c s="2" r="A141" t="n">
+        <v>41545.117164351854</v>
+      </c>
+      <c r="B141" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C141" t="n">
+        <v>55.692379000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c s="2" r="A142" t="n">
+        <v>41545.11800925926</v>
+      </c>
+      <c r="B142" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>55.375729</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c s="2" r="A143" t="n">
+        <v>41545.118842592594</v>
+      </c>
+      <c r="B143" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C143" t="n">
+        <v>58.633792999999997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c s="2" r="A144" t="n">
+        <v>41545.1196875</v>
+      </c>
+      <c r="B144" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>61.933689000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c s="2" r="A145" t="n">
+        <v>41545.120520833334</v>
+      </c>
+      <c r="B145" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C145" t="n">
+        <v>60.914436000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c s="2" r="A146" t="n">
+        <v>41545.12136574074</v>
+      </c>
+      <c r="B146" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C146" t="n">
+        <v>60.246037000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c s="2" r="A147" t="n">
+        <v>41545.12221064815</v>
+      </c>
+      <c r="B147" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C147" t="n">
+        <v>59.377791999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c s="2" r="A148" t="n">
+        <v>41545.12304398148</v>
+      </c>
+      <c r="B148" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C148" t="n">
+        <v>58.899582000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c s="2" r="A149" t="n">
+        <v>41545.12388888889</v>
+      </c>
+      <c r="B149" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C149" t="n">
+        <v>58.697704000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c s="2" r="A150" t="n">
+        <v>41545.12472222222</v>
+      </c>
+      <c r="B150" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>58.561100000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c s="2" r="A151" t="n">
+        <v>41545.12556712963</v>
+      </c>
+      <c r="B151" t="n">
+        <v>37.279998999999997</v>
+      </c>
+      <c r="C151" t="n">
+        <v>57.942580999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c s="2" r="A152" t="n">
+        <v>41545.12640046296</v>
+      </c>
+      <c r="B152" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="C152" t="n">
+        <v>57.260578000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c s="2" r="A153" t="n">
+        <v>41545.12724537037</v>
+      </c>
+      <c r="B153" t="n">
+        <v>37.799999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>56.696480000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c s="2" r="A154" t="n">
+        <v>41545.1280787037</v>
+      </c>
+      <c r="B154" t="n">
+        <v>37.740001999999997</v>
+      </c>
+      <c r="C154" t="n">
+        <v>56.590977000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c s="2" r="A155" t="n">
+        <v>41545.12892361111</v>
+      </c>
+      <c r="B155" t="n">
+        <v>37.650002000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>56.61063</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c s="2" r="A156" t="n">
+        <v>41545.12976851852</v>
+      </c>
+      <c r="B156" t="n">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="C156" t="n">
+        <v>56.753875999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c s="2" r="A157" t="n">
+        <v>41545.13060185185</v>
+      </c>
+      <c r="B157" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C157" t="n">
+        <v>56.899707999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c s="2" r="A158" t="n">
+        <v>41545.13144675926</v>
+      </c>
+      <c r="B158" t="n">
+        <v>37.259998000000003</v>
+      </c>
+      <c r="C158" t="n">
+        <v>57.007389000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c s="2" r="A159" t="n">
+        <v>41545.13228009259</v>
+      </c>
+      <c r="B159" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C159" t="n">
+        <v>56.670895000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c s="2" r="A160" t="n">
+        <v>41545.133125</v>
+      </c>
+      <c r="B160" t="n">
+        <v>37.610000999999997</v>
+      </c>
+      <c r="C160" t="n">
+        <v>55.989597000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c s="2" r="A161" t="n">
+        <v>41545.13395833333</v>
+      </c>
+      <c r="B161" t="n">
+        <v>37.639999000000003</v>
+      </c>
+      <c r="C161" t="n">
+        <v>55.669052000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c s="2" r="A162" t="n">
+        <v>41545.13480324074</v>
+      </c>
+      <c r="B162" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="C162" t="n">
+        <v>55.724319000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c s="2" r="A163" t="n">
+        <v>41545.13563657407</v>
+      </c>
+      <c r="B163" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>55.869956999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c s="2" r="A164" t="n">
+        <v>41545.13648148148</v>
+      </c>
+      <c r="B164" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C164" t="n">
+        <v>56.047767999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c s="2" r="A165" t="n">
+        <v>41545.13731481481</v>
+      </c>
+      <c r="B165" t="n">
+        <v>37.240001999999997</v>
+      </c>
+      <c r="C165" t="n">
+        <v>56.197097999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c s="2" r="A166" t="n">
+        <v>41545.13815972222</v>
+      </c>
+      <c r="B166" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C166" t="n">
+        <v>55.735962000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c s="2" r="A167" t="n">
+        <v>41545.13900462963</v>
+      </c>
+      <c r="B167" t="n">
+        <v>37.560001</v>
+      </c>
+      <c r="C167" t="n">
+        <v>55.137332999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c s="2" r="A168" t="n">
+        <v>41545.13983796296</v>
+      </c>
+      <c r="B168" t="n">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="C168" t="n">
+        <v>60.821522000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c s="2" r="A169" t="n">
+        <v>41545.14068287037</v>
+      </c>
+      <c r="B169" t="n">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="C169" t="n">
+        <v>62.237636999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c s="2" r="A170" t="n">
+        <v>41545.1415162037</v>
+      </c>
+      <c r="B170" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>61.091946</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c s="2" r="A171" t="n">
+        <v>41545.14236111111</v>
+      </c>
+      <c r="B171" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C171" t="n">
+        <v>60.604652000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c s="2" r="A172" t="n">
+        <v>41545.14319444444</v>
+      </c>
+      <c r="B172" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C172" t="n">
+        <v>60.147998999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c s="2" r="A173" t="n">
+        <v>41545.14405092593</v>
+      </c>
+      <c r="B173" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C173" t="n">
+        <v>59.579726999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c s="2" r="A174" t="n">
+        <v>41545.14488425926</v>
+      </c>
+      <c r="B174" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>59.085129000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c s="2" r="A175" t="n">
+        <v>41545.14572916667</v>
+      </c>
+      <c r="B175" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C175" t="n">
+        <v>58.760136000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c s="2" r="A176" t="n">
+        <v>41545.1465625</v>
+      </c>
+      <c r="B176" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C176" t="n">
+        <v>58.654049000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c s="2" r="A177" t="n">
+        <v>41545.14740740741</v>
+      </c>
+      <c r="B177" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C177" t="n">
+        <v>58.219276000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c s="2" r="A178" t="n">
+        <v>41545.14824074074</v>
+      </c>
+      <c r="B178" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C178" t="n">
+        <v>57.838776000000003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c s="2" r="A179" t="n">
+        <v>41545.14908564815</v>
+      </c>
+      <c r="B179" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C179" t="n">
+        <v>57.733790999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c s="2" r="A180" t="n">
+        <v>41545.149930555555</v>
+      </c>
+      <c r="B180" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C180" t="n">
+        <v>57.815711999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c s="2" r="A181" t="n">
+        <v>41545.15076388889</v>
+      </c>
+      <c r="B181" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>57.409484999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c s="2" r="A182" t="n">
+        <v>41545.151608796295</v>
+      </c>
+      <c r="B182" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C182" t="n">
+        <v>57.093184999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c s="2" r="A183" t="n">
+        <v>41545.15244212963</v>
+      </c>
+      <c r="B183" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>57.084648000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c s="2" r="A184" t="n">
+        <v>41545.153287037036</v>
+      </c>
+      <c r="B184" t="n">
+        <v>37.259998000000003</v>
+      </c>
+      <c r="C184" t="n">
+        <v>57.104056999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c s="2" r="A185" t="n">
+        <v>41545.15412037037</v>
+      </c>
+      <c r="B185" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C185" t="n">
+        <v>56.607692999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c s="2" r="A186" t="n">
+        <v>41545.154965277776</v>
+      </c>
+      <c r="B186" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C186" t="n">
+        <v>56.448867999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c s="2" r="A187" t="n">
+        <v>41545.155798611115</v>
+      </c>
+      <c r="B187" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>56.503681</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c s="2" r="A188" t="n">
+        <v>41545.156643518516</v>
+      </c>
+      <c r="B188" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C188" t="n">
+        <v>56.405265999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c s="2" r="A189" t="n">
+        <v>41545.157476851855</v>
+      </c>
+      <c r="B189" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C189" t="n">
+        <v>55.999701999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c s="2" r="A190" t="n">
+        <v>41545.158321759256</v>
+      </c>
+      <c r="B190" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>56.022339000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c s="2" r="A191" t="n">
+        <v>41545.159166666665</v>
+      </c>
+      <c r="B191" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>56.17313</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c s="2" r="A192" t="n">
+        <v>41545.16</v>
+      </c>
+      <c r="B192" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C192" t="n">
+        <v>55.829158999999997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c s="2" r="A193" t="n">
+        <v>41545.160844907405</v>
+      </c>
+      <c r="B193" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C193" t="n">
+        <v>55.700710000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c s="2" r="A194" t="n">
+        <v>41545.161678240744</v>
+      </c>
+      <c r="B194" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>55.726233999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c s="2" r="A195" t="n">
+        <v>41545.162523148145</v>
+      </c>
+      <c r="B195" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C195" t="n">
+        <v>55.535522</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c s="2" r="A196" t="n">
+        <v>41545.163356481484</v>
+      </c>
+      <c r="B196" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>55.371586000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c s="2" r="A197" t="n">
+        <v>41545.16420138889</v>
+      </c>
+      <c r="B197" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C197" t="n">
+        <v>61.102145999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c s="2" r="A198" t="n">
+        <v>41545.165034722224</v>
+      </c>
+      <c r="B198" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>61.855483999999997</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c s="2" r="A199" t="n">
+        <v>41545.16587962963</v>
+      </c>
+      <c r="B199" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>60.482674000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c s="2" r="A200" t="n">
+        <v>41545.166712962964</v>
+      </c>
+      <c r="B200" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>59.667084000000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c s="2" r="A201" t="n">
+        <v>41545.16755787037</v>
+      </c>
+      <c r="B201" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>58.976215000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c s="2" r="A202" t="n">
+        <v>41545.168391203704</v>
+      </c>
+      <c r="B202" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C202" t="n">
+        <v>58.957538999999997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c s="2" r="A203" t="n">
+        <v>41545.16923611111</v>
+      </c>
+      <c r="B203" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C203" t="n">
+        <v>58.691853000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c s="2" r="A204" t="n">
+        <v>41545.17008101852</v>
+      </c>
+      <c r="B204" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C204" t="n">
+        <v>58.530589999999997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c s="2" r="A205" t="n">
+        <v>41545.17091435185</v>
+      </c>
+      <c r="B205" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C205" t="n">
+        <v>58.000670999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c s="2" r="A206" t="n">
+        <v>41545.17175925926</v>
+      </c>
+      <c r="B206" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C206" t="n">
+        <v>57.806663999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c s="2" r="A207" t="n">
+        <v>41545.17259259259</v>
+      </c>
+      <c r="B207" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C207" t="n">
+        <v>57.729472999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c s="2" r="A208" t="n">
+        <v>41545.1734375</v>
+      </c>
+      <c r="B208" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C208" t="n">
+        <v>57.538128</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c s="2" r="A209" t="n">
+        <v>41545.17427083333</v>
+      </c>
+      <c r="B209" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>57.131115000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c s="2" r="A210" t="n">
+        <v>41545.17511574074</v>
+      </c>
+      <c r="B210" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C210" t="n">
+        <v>56.999313000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c s="2" r="A211" t="n">
+        <v>41545.17594907407</v>
+      </c>
+      <c r="B211" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C211" t="n">
+        <v>56.958534</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c s="2" r="A212" t="n">
+        <v>41545.17679398148</v>
+      </c>
+      <c r="B212" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C212" t="n">
+        <v>56.860348000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c s="2" r="A213" t="n">
+        <v>41545.17763888889</v>
+      </c>
+      <c r="B213" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C213" t="n">
+        <v>56.578189999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c s="2" r="A214" t="n">
+        <v>41545.17847222222</v>
+      </c>
+      <c r="B214" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C214" t="n">
+        <v>56.509315000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c s="2" r="A215" t="n">
+        <v>41545.17931712963</v>
+      </c>
+      <c r="B215" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C215" t="n">
+        <v>56.444645000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c s="2" r="A216" t="n">
+        <v>41545.18015046296</v>
+      </c>
+      <c r="B216" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C216" t="n">
+        <v>56.034911999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c s="2" r="A217" t="n">
+        <v>41545.18099537037</v>
+      </c>
+      <c r="B217" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C217" t="n">
+        <v>55.965881000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c s="2" r="A218" t="n">
+        <v>41545.1818287037</v>
+      </c>
+      <c r="B218" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C218" t="n">
+        <v>56.082962000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c s="2" r="A219" t="n">
+        <v>41545.18267361111</v>
+      </c>
+      <c r="B219" t="n">
+        <v>37.240001999999997</v>
+      </c>
+      <c r="C219" t="n">
+        <v>56.197097999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c s="2" r="A220" t="n">
+        <v>41545.18350694444</v>
+      </c>
+      <c r="B220" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C220" t="n">
+        <v>55.946345999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c s="2" r="A221" t="n">
+        <v>41545.18435185185</v>
+      </c>
+      <c r="B221" t="n">
+        <v>37.529998999999997</v>
+      </c>
+      <c r="C221" t="n">
+        <v>55.361145</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c s="2" r="A222" t="n">
+        <v>41545.18518518518</v>
+      </c>
+      <c r="B222" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="C222" t="n">
+        <v>56.469977999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c s="2" r="A223" t="n">
+        <v>41545.18603009259</v>
+      </c>
+      <c r="B223" t="n">
+        <v>37.610000999999997</v>
+      </c>
+      <c r="C223" t="n">
+        <v>62.428714999999997</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c s="2" r="A224" t="n">
+        <v>41545.186875</v>
+      </c>
+      <c r="B224" t="n">
+        <v>37.560001</v>
+      </c>
+      <c r="C224" t="n">
+        <v>61.101086000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c s="2" r="A225" t="n">
+        <v>41545.18770833333</v>
+      </c>
+      <c r="B225" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C225" t="n">
+        <v>60.300258999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c s="2" r="A226" t="n">
+        <v>41545.18855324074</v>
+      </c>
+      <c r="B226" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C226" t="n">
+        <v>60.001472</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c s="2" r="A227" t="n">
+        <v>41545.18938657407</v>
+      </c>
+      <c r="B227" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C227" t="n">
+        <v>59.643287999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c s="2" r="A228" t="n">
+        <v>41545.19023148148</v>
+      </c>
+      <c r="B228" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C228" t="n">
+        <v>59.086601000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c s="2" r="A229" t="n">
+        <v>41545.19106481481</v>
+      </c>
+      <c r="B229" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C229" t="n">
+        <v>58.612057</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c s="2" r="A230" t="n">
+        <v>41545.19190972222</v>
+      </c>
+      <c r="B230" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C230" t="n">
+        <v>58.382289999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c s="2" r="A231" t="n">
+        <v>41545.19274305556</v>
+      </c>
+      <c r="B231" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C231" t="n">
+        <v>58.309539999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c s="2" r="A232" t="n">
+        <v>41545.19358796296</v>
+      </c>
+      <c r="B232" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C232" t="n">
+        <v>58.207664000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c s="2" r="A233" t="n">
+        <v>41545.19443287037</v>
+      </c>
+      <c r="B233" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C233" t="n">
+        <v>57.679614999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c s="2" r="A234" t="n">
+        <v>41545.1952662037</v>
+      </c>
+      <c r="B234" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C234" t="n">
+        <v>57.393051</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c s="2" r="A235" t="n">
+        <v>41545.19611111111</v>
+      </c>
+      <c r="B235" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C235" t="n">
+        <v>57.352276000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c s="2" r="A236" t="n">
+        <v>41545.19694444445</v>
+      </c>
+      <c r="B236" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C236" t="n">
+        <v>57.433064000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c s="2" r="A237" t="n">
+        <v>41545.19778935185</v>
+      </c>
+      <c r="B237" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C237" t="n">
+        <v>57.025871000000002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c s="2" r="A238" t="n">
+        <v>41545.19863425926</v>
+      </c>
+      <c r="B238" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C238" t="n">
+        <v>56.776263999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c s="2" r="A239" t="n">
+        <v>41545.199467592596</v>
+      </c>
+      <c r="B239" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C239" t="n">
+        <v>56.706017000000003</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c s="2" r="A240" t="n">
+        <v>41545.2003125</v>
+      </c>
+      <c r="B240" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C240" t="n">
+        <v>56.788722999999997</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c s="2" r="A241" t="n">
+        <v>41545.201145833336</v>
+      </c>
+      <c r="B241" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C241" t="n">
+        <v>56.571136000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c s="2" r="A242" t="n">
+        <v>41545.20199074074</v>
+      </c>
+      <c r="B242" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C242" t="n">
+        <v>56.284275000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c s="2" r="A243" t="n">
+        <v>41545.202835648146</v>
+      </c>
+      <c r="B243" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C243" t="n">
+        <v>56.277259999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c s="2" r="A244" t="n">
+        <v>41545.203668981485</v>
+      </c>
+      <c r="B244" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C244" t="n">
+        <v>56.215321000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c s="2" r="A245" t="n">
+        <v>41545.204513888886</v>
+      </c>
+      <c r="B245" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C245" t="n">
+        <v>55.896832000000003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c s="2" r="A246" t="n">
+        <v>41545.205347222225</v>
+      </c>
+      <c r="B246" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C246" t="n">
+        <v>55.894043000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c s="2" r="A247" t="n">
+        <v>41545.206192129626</v>
+      </c>
+      <c r="B247" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C247" t="n">
+        <v>55.978760000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c s="2" r="A248" t="n">
+        <v>41545.207025462965</v>
+      </c>
+      <c r="B248" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C248" t="n">
+        <v>55.820805</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c s="2" r="A249" t="n">
+        <v>41545.207870370374</v>
+      </c>
+      <c r="B249" t="n">
+        <v>37.509998000000003</v>
+      </c>
+      <c r="C249" t="n">
+        <v>55.195610000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c s="2" r="A250" t="n">
+        <v>41545.208703703705</v>
+      </c>
+      <c r="B250" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C250" t="n">
+        <v>57.229197999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c s="2" r="A251" t="n">
+        <v>41545.209548611114</v>
+      </c>
+      <c r="B251" t="n">
+        <v>37.560001</v>
+      </c>
+      <c r="C251" t="n">
+        <v>61.856490999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c s="2" r="A252" t="n">
+        <v>41545.210381944446</v>
+      </c>
+      <c r="B252" t="n">
+        <v>37.619999</v>
+      </c>
+      <c r="C252" t="n">
+        <v>60.794471999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c s="2" r="A253" t="n">
+        <v>41545.211226851854</v>
+      </c>
+      <c r="B253" t="n">
+        <v>37.580002</v>
+      </c>
+      <c r="C253" t="n">
+        <v>60.123573</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c s="2" r="A254" t="n">
+        <v>41545.212060185186</v>
+      </c>
+      <c r="B254" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C254" t="n">
+        <v>59.762428</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c s="2" r="A255" t="n">
+        <v>41545.212905092594</v>
+      </c>
+      <c r="B255" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C255" t="n">
+        <v>59.525042999999997</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c s="2" r="A256" t="n">
+        <v>41545.21375</v>
+      </c>
+      <c r="B256" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C256" t="n">
+        <v>59.384453000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c s="2" r="A257" t="n">
+        <v>41545.214583333334</v>
+      </c>
+      <c r="B257" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C257" t="n">
+        <v>58.822533</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c s="2" r="A258" t="n">
+        <v>41545.21542824074</v>
+      </c>
+      <c r="B258" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C258" t="n">
+        <v>58.351730000000003</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c s="2" r="A259" t="n">
+        <v>41545.216261574074</v>
+      </c>
+      <c r="B259" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C259" t="n">
+        <v>58.187229000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c s="2" r="A260" t="n">
+        <v>41545.21710648148</v>
+      </c>
+      <c r="B260" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C260" t="n">
+        <v>58.080952000000003</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c s="2" r="A261" t="n">
+        <v>41545.217939814815</v>
+      </c>
+      <c r="B261" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C261" t="n">
+        <v>57.768791</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c s="2" r="A262" t="n">
+        <v>41545.21878472222</v>
+      </c>
+      <c r="B262" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C262" t="n">
+        <v>57.359425000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c s="2" r="A263" t="n">
+        <v>41545.21962962963</v>
+      </c>
+      <c r="B263" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C263" t="n">
+        <v>57.317233999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c s="2" r="A264" t="n">
+        <v>41545.22046296296</v>
+      </c>
+      <c r="B264" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C264" t="n">
+        <v>57.370162999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c s="2" r="A265" t="n">
+        <v>41545.22130787037</v>
+      </c>
+      <c r="B265" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C265" t="n">
+        <v>57.084648000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c s="2" r="A266" t="n">
+        <v>41545.2221412037</v>
+      </c>
+      <c r="B266" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C266" t="n">
+        <v>56.835166999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c s="2" r="A267" t="n">
+        <v>41545.22298611111</v>
+      </c>
+      <c r="B267" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C267" t="n">
+        <v>56.703189999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c s="2" r="A268" t="n">
+        <v>41545.22381944444</v>
+      </c>
+      <c r="B268" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C268" t="n">
+        <v>56.668072000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c s="2" r="A269" t="n">
+        <v>41545.22466435185</v>
+      </c>
+      <c r="B269" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C269" t="n">
+        <v>56.292693999999997</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c s="2" r="A270" t="n">
+        <v>41545.225497685184</v>
+      </c>
+      <c r="B270" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C270" t="n">
+        <v>56.157550999999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c s="2" r="A271" t="n">
+        <v>41545.22634259259</v>
+      </c>
+      <c r="B271" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C271" t="n">
+        <v>56.215321000000003</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c s="2" r="A272" t="n">
+        <v>41545.2271875</v>
+      </c>
+      <c r="B272" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C272" t="n">
+        <v>56.209713000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c s="2" r="A273" t="n">
+        <v>41545.22802083333</v>
+      </c>
+      <c r="B273" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C273" t="n">
+        <v>55.927867999999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c s="2" r="A274" t="n">
+        <v>41545.22886574074</v>
+      </c>
+      <c r="B274" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C274" t="n">
+        <v>55.826374000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c s="2" r="A275" t="n">
+        <v>41545.22969907407</v>
+      </c>
+      <c r="B275" t="n">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="C275" t="n">
+        <v>55.909739999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c s="2" r="A276" t="n">
+        <v>41545.23054398148</v>
+      </c>
+      <c r="B276" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C276" t="n">
+        <v>55.666851000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c s="2" r="A277" t="n">
+        <v>41545.23137731481</v>
+      </c>
+      <c r="B277" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C277" t="n">
+        <v>55.505794999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c s="2" r="A278" t="n">
+        <v>41545.23222222222</v>
+      </c>
+      <c r="B278" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C278" t="n">
+        <v>55.592185999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c s="2" r="A279" t="n">
+        <v>41545.23305555555</v>
+      </c>
+      <c r="B279" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C279" t="n">
+        <v>62.136177000000004</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c s="2" r="A280" t="n">
+        <v>41545.23390046296</v>
+      </c>
+      <c r="B280" t="n">
+        <v>37.549999</v>
+      </c>
+      <c r="C280" t="n">
+        <v>62.638370999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c s="2" r="A281" t="n">
+        <v>41545.23473379629</v>
+      </c>
+      <c r="B281" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="C281" t="n">
+        <v>61.228737000000002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c s="2" r="A282" t="n">
+        <v>41545.2355787037</v>
+      </c>
+      <c r="B282" t="n">
+        <v>37.529998999999997</v>
+      </c>
+      <c r="C282" t="n">
+        <v>60.401279000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c s="2" r="A283" t="n">
+        <v>41545.23642361111</v>
+      </c>
+      <c r="B283" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C283" t="n">
+        <v>59.980217000000003</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c s="2" r="A284" t="n">
+        <v>41545.23725694444</v>
+      </c>
+      <c r="B284" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C284" t="n">
+        <v>59.682502999999997</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c s="2" r="A285" t="n">
+        <v>41545.23810185185</v>
+      </c>
+      <c r="B285" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C285" t="n">
+        <v>59.511687999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c s="2" r="A286" t="n">
+        <v>41545.23893518518</v>
+      </c>
+      <c r="B286" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C286" t="n">
+        <v>58.889305</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c s="2" r="A287" t="n">
+        <v>41545.23978009259</v>
+      </c>
+      <c r="B287" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C287" t="n">
+        <v>58.449215000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c s="2" r="A288" t="n">
+        <v>41545.240625</v>
+      </c>
+      <c r="B288" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C288" t="n">
+        <v>58.249854999999997</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c s="2" r="A289" t="n">
+        <v>41545.24146990741</v>
+      </c>
+      <c r="B289" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C289" t="n">
+        <v>58.143597</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c s="2" r="A290" t="n">
+        <v>41545.24230324074</v>
+      </c>
+      <c r="B290" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C290" t="n">
+        <v>57.892864000000003</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c s="2" r="A291" t="n">
+        <v>41545.24314814815</v>
+      </c>
+      <c r="B291" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C291" t="n">
+        <v>57.516005999999997</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c s="2" r="A292" t="n">
+        <v>41545.243993055556</v>
+      </c>
+      <c r="B292" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C292" t="n">
+        <v>57.443089000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c s="2" r="A293" t="n">
+        <v>41545.24482638889</v>
+      </c>
+      <c r="B293" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C293" t="n">
+        <v>57.400897999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c s="2" r="A294" t="n">
+        <v>41545.245671296296</v>
+      </c>
+      <c r="B294" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C294" t="n">
+        <v>57.030135999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c s="2" r="A295" t="n">
+        <v>41545.24650462963</v>
+      </c>
+      <c r="B295" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C295" t="n">
+        <v>56.774849000000003</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c s="2" r="A296" t="n">
+        <v>41545.247349537036</v>
+      </c>
+      <c r="B296" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C296" t="n">
+        <v>56.830916999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c s="2" r="A297" t="n">
+        <v>41545.24818287037</v>
+      </c>
+      <c r="B297" t="n">
+        <v>37.259998000000003</v>
+      </c>
+      <c r="C297" t="n">
+        <v>56.878428999999997</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c s="2" r="A298" t="n">
+        <v>41545.249027777776</v>
+      </c>
+      <c r="B298" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C298" t="n">
+        <v>56.568317</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c s="2" r="A299" t="n">
+        <v>41545.249872685185</v>
+      </c>
+      <c r="B299" t="n">
+        <v>37.599997999999999</v>
+      </c>
+      <c r="C299" t="n">
+        <v>55.89085</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c s="2" r="A300" t="n">
+        <v>41545.25071759259</v>
+      </c>
+      <c r="B300" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C300" t="n">
+        <v>55.4193</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c s="2" r="A301" t="n">
+        <v>41545.251550925925</v>
+      </c>
+      <c r="B301" t="n">
+        <v>37.639999000000003</v>
+      </c>
+      <c r="C301" t="n">
+        <v>60.987026</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c s="2" r="A302" t="n">
+        <v>41545.25239583333</v>
+      </c>
+      <c r="B302" t="n">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="C302" t="n">
+        <v>61.861117999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c s="2" r="A303" t="n">
+        <v>41545.253229166665</v>
+      </c>
+      <c r="B303" t="n">
+        <v>37.509998000000003</v>
+      </c>
+      <c r="C303" t="n">
+        <v>60.998829000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c s="2" r="A304" t="n">
+        <v>41545.25407407407</v>
+      </c>
+      <c r="B304" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C304" t="n">
+        <v>60.419379999999997</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c s="2" r="A305" t="n">
+        <v>41545.254907407405</v>
+      </c>
+      <c r="B305" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C305" t="n">
+        <v>60.181182999999997</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c s="2" r="A306" t="n">
+        <v>41545.25575231481</v>
+      </c>
+      <c r="B306" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C306" t="n">
+        <v>59.743065000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c s="2" r="A307" t="n">
+        <v>41545.25659722222</v>
+      </c>
+      <c r="B307" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C307" t="n">
+        <v>59.053238</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c s="2" r="A308" t="n">
+        <v>41545.25743055555</v>
+      </c>
+      <c r="B308" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C308" t="n">
+        <v>58.858856000000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c s="2" r="A309" t="n">
+        <v>41545.25827546296</v>
+      </c>
+      <c r="B309" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C309" t="n">
+        <v>58.720866999999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c s="2" r="A310" t="n">
+        <v>41545.259108796294</v>
+      </c>
+      <c r="B310" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C310" t="n">
+        <v>58.316806999999997</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c s="2" r="A311" t="n">
+        <v>41545.2599537037</v>
+      </c>
+      <c r="B311" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C311" t="n">
+        <v>57.936503999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c s="2" r="A312" t="n">
+        <v>41545.26079861111</v>
+      </c>
+      <c r="B312" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C312" t="n">
+        <v>57.833008</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c s="2" r="A313" t="n">
+        <v>41545.26164351852</v>
+      </c>
+      <c r="B313" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C313" t="n">
+        <v>57.730910999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c s="2" r="A314" t="n">
+        <v>41545.26247685185</v>
+      </c>
+      <c r="B314" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C314" t="n">
+        <v>57.359425000000002</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c s="2" r="A315" t="n">
+        <v>41545.26332175926</v>
+      </c>
+      <c r="B315" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C315" t="n">
+        <v>57.224918000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c s="2" r="A316" t="n">
+        <v>41545.26415509259</v>
+      </c>
+      <c r="B316" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C316" t="n">
+        <v>57.277904999999997</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c s="2" r="A317" t="n">
+        <v>41545.265</v>
+      </c>
+      <c r="B317" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C317" t="n">
+        <v>57.025871000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c s="2" r="A318" t="n">
+        <v>41545.26583333333</v>
+      </c>
+      <c r="B318" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C318" t="n">
+        <v>56.710258000000003</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c s="2" r="A319" t="n">
+        <v>41545.26667824074</v>
+      </c>
+      <c r="B319" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C319" t="n">
+        <v>56.732658000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c s="2" r="A320" t="n">
+        <v>41545.26751157407</v>
+      </c>
+      <c r="B320" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C320" t="n">
+        <v>56.725589999999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c s="2" r="A321" t="n">
+        <v>41545.26835648148</v>
+      </c>
+      <c r="B321" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C321" t="n">
+        <v>56.443241</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c s="2" r="A322" t="n">
+        <v>41545.26918981481</v>
+      </c>
+      <c r="B322" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="C322" t="n">
+        <v>55.919128000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c s="2" r="A323" t="n">
+        <v>41545.27003472222</v>
+      </c>
+      <c r="B323" t="n">
+        <v>37.599997999999999</v>
+      </c>
+      <c r="C323" t="n">
+        <v>55.695999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c s="2" r="A324" t="n">
+        <v>41545.27087962963</v>
+      </c>
+      <c r="B324" t="n">
+        <v>37.509998000000003</v>
+      </c>
+      <c r="C324" t="n">
+        <v>55.748466000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c s="2" r="A325" t="n">
+        <v>41545.27171296296</v>
+      </c>
+      <c r="B325" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C325" t="n">
+        <v>55.927867999999997</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c s="2" r="A326" t="n">
+        <v>41545.27255787037</v>
+      </c>
+      <c r="B326" t="n">
+        <v>37.279998999999997</v>
+      </c>
+      <c r="C326" t="n">
+        <v>56.137951000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c s="2" r="A327" t="n">
+        <v>41545.2733912037</v>
+      </c>
+      <c r="B327" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C327" t="n">
+        <v>55.856029999999997</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c s="2" r="A328" t="n">
+        <v>41545.27423611111</v>
+      </c>
+      <c r="B328" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="C328" t="n">
+        <v>55.171284</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c s="2" r="A329" t="n">
+        <v>41545.27506944445</v>
+      </c>
+      <c r="B329" t="n">
+        <v>37.639999000000003</v>
+      </c>
+      <c r="C329" t="n">
+        <v>56.867756</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c s="2" r="A330" t="n">
+        <v>41545.27591435185</v>
+      </c>
+      <c r="B330" t="n">
+        <v>37.669998</v>
+      </c>
+      <c r="C330" t="n">
+        <v>63.934769000000003</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c s="2" r="A331" t="n">
+        <v>41545.27675925926</v>
+      </c>
+      <c r="B331" t="n">
+        <v>37.599997999999999</v>
+      </c>
+      <c r="C331" t="n">
+        <v>62.427157999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c s="2" r="A332" t="n">
+        <v>41545.277592592596</v>
+      </c>
+      <c r="B332" t="n">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="C332" t="n">
+        <v>61.378619999999998</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c s="2" r="A333" t="n">
+        <v>41545.2784375</v>
+      </c>
+      <c r="B333" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C333" t="n">
+        <v>60.922030999999997</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c s="2" r="A334" t="n">
+        <v>41545.279270833336</v>
+      </c>
+      <c r="B334" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C334" t="n">
+        <v>60.532356</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c s="2" r="A335" t="n">
+        <v>41545.28011574074</v>
+      </c>
+      <c r="B335" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C335" t="n">
+        <v>60.175179</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c s="2" r="A336" t="n">
+        <v>41545.280960648146</v>
+      </c>
+      <c r="B336" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C336" t="n">
+        <v>59.496197000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c s="2" r="A337" t="n">
+        <v>41545.281793981485</v>
+      </c>
+      <c r="B337" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C337" t="n">
+        <v>59.050293000000003</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c s="2" r="A338" t="n">
+        <v>41545.282638888886</v>
+      </c>
+      <c r="B338" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C338" t="n">
+        <v>58.886367999999997</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c s="2" r="A339" t="n">
+        <v>41545.283472222225</v>
+      </c>
+      <c r="B339" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C339" t="n">
+        <v>58.687461999999996</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c s="2" r="A340" t="n">
+        <v>41545.284317129626</v>
+      </c>
+      <c r="B340" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C340" t="n">
+        <v>58.191581999999997</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c s="2" r="A341" t="n">
+        <v>41545.285150462965</v>
+      </c>
+      <c r="B341" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C341" t="n">
+        <v>57.901524000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c s="2" r="A342" t="n">
+        <v>41545.285995370374</v>
+      </c>
+      <c r="B342" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C342" t="n">
+        <v>57.892864000000003</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c s="2" r="A343" t="n">
+        <v>41545.286840277775</v>
+      </c>
+      <c r="B343" t="n">
+        <v>37.279998999999997</v>
+      </c>
+      <c r="C343" t="n">
+        <v>57.910511</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c s="2" r="A344" t="n">
+        <v>41545.287673611114</v>
+      </c>
+      <c r="B344" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C344" t="n">
+        <v>57.448818000000003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c s="2" r="A345" t="n">
+        <v>41545.288518518515</v>
+      </c>
+      <c r="B345" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C345" t="n">
+        <v>57.192703000000002</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c s="2" r="A346" t="n">
+        <v>41545.289351851854</v>
+      </c>
+      <c r="B346" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C346" t="n">
+        <v>57.213509000000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c s="2" r="A347" t="n">
+        <v>41545.29019675926</v>
+      </c>
+      <c r="B347" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C347" t="n">
+        <v>57.146239999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c s="2" r="A348" t="n">
+        <v>41545.291030092594</v>
+      </c>
+      <c r="B348" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C348" t="n">
+        <v>56.679375</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c s="2" r="A349" t="n">
+        <v>41545.291875</v>
+      </c>
+      <c r="B349" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C349" t="n">
+        <v>56.365893999999997</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c s="2" r="A350" t="n">
+        <v>41545.292708333334</v>
+      </c>
+      <c r="B350" t="n">
+        <v>37.200001</v>
+      </c>
+      <c r="C350" t="n">
+        <v>56.417912000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c s="2" r="A351" t="n">
+        <v>41545.29355324074</v>
+      </c>
+      <c r="B351" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C351" t="n">
+        <v>56.440426000000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c s="2" r="A352" t="n">
+        <v>41545.294386574074</v>
+      </c>
+      <c r="B352" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C352" t="n">
+        <v>56.127955999999998</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c s="2" r="A353" t="n">
+        <v>41545.29523148148</v>
+      </c>
+      <c r="B353" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C353" t="n">
+        <v>55.995514</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c s="2" r="A354" t="n">
+        <v>41545.296064814815</v>
+      </c>
+      <c r="B354" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C354" t="n">
+        <v>56.113964000000003</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c s="2" r="A355" t="n">
+        <v>41545.29690972222</v>
+      </c>
+      <c r="B355" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C355" t="n">
+        <v>55.984344</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c s="2" r="A356" t="n">
+        <v>41545.29775462963</v>
+      </c>
+      <c r="B356" t="n">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="C356" t="n">
+        <v>55.457363000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c s="2" r="A357" t="n">
+        <v>41545.29858796296</v>
+      </c>
+      <c r="B357" t="n">
+        <v>37.650002000000001</v>
+      </c>
+      <c r="C357" t="n">
+        <v>55.312584000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c s="2" r="A358" t="n">
+        <v>41545.29943287037</v>
+      </c>
+      <c r="B358" t="n">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="C358" t="n">
+        <v>63.608772000000002</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c s="2" r="A359" t="n">
+        <v>41545.3002662037</v>
+      </c>
+      <c r="B359" t="n">
+        <v>37.689999</v>
+      </c>
+      <c r="C359" t="n">
+        <v>61.845123000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c s="2" r="A360" t="n">
+        <v>41545.30111111111</v>
+      </c>
+      <c r="B360" t="n">
+        <v>37.619999</v>
+      </c>
+      <c r="C360" t="n">
+        <v>60.857666000000002</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c s="2" r="A361" t="n">
+        <v>41545.30194444444</v>
+      </c>
+      <c r="B361" t="n">
+        <v>37.529998999999997</v>
+      </c>
+      <c r="C361" t="n">
+        <v>60.306271000000002</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c s="2" r="A362" t="n">
+        <v>41545.30278935185</v>
+      </c>
+      <c r="B362" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C362" t="n">
+        <v>59.974235999999998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c s="2" r="A363" t="n">
+        <v>41545.303622685184</v>
+      </c>
+      <c r="B363" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C363" t="n">
+        <v>59.803592999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c s="2" r="A364" t="n">
+        <v>41545.30446759259</v>
+      </c>
+      <c r="B364" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C364" t="n">
+        <v>59.361514999999997</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c s="2" r="A365" t="n">
+        <v>41545.3053125</v>
+      </c>
+      <c r="B365" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C365" t="n">
+        <v>58.736969000000002</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c s="2" r="A366" t="n">
+        <v>41545.30614583333</v>
+      </c>
+      <c r="B366" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C366" t="n">
+        <v>58.513190999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c s="2" r="A367" t="n">
+        <v>41545.30699074074</v>
+      </c>
+      <c r="B367" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C367" t="n">
+        <v>58.310993000000003</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c s="2" r="A368" t="n">
+        <v>41545.30782407407</v>
+      </c>
+      <c r="B368" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C368" t="n">
+        <v>58.268799000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c s="2" r="A369" t="n">
+        <v>41545.30866898148</v>
+      </c>
+      <c r="B369" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C369" t="n">
+        <v>57.742427999999997</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c s="2" r="A370" t="n">
+        <v>41545.30950231481</v>
+      </c>
+      <c r="B370" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C370" t="n">
+        <v>57.485278999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c s="2" r="A371" t="n">
+        <v>41545.31034722222</v>
+      </c>
+      <c r="B371" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C371" t="n">
+        <v>57.381607000000002</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c s="2" r="A372" t="n">
+        <v>41545.31118055555</v>
+      </c>
+      <c r="B372" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C372" t="n">
+        <v>57.335121000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c s="2" r="A373" t="n">
+        <v>41545.31202546296</v>
+      </c>
+      <c r="B373" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C373" t="n">
+        <v>56.908217999999998</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c s="2" r="A374" t="n">
+        <v>41545.31287037037</v>
+      </c>
+      <c r="B374" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C374" t="n">
+        <v>56.682198</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c s="2" r="A375" t="n">
+        <v>41545.31371527778</v>
+      </c>
+      <c r="B375" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C375" t="n">
+        <v>56.736904000000003</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c s="2" r="A376" t="n">
+        <v>41545.31454861111</v>
+      </c>
+      <c r="B376" t="n">
+        <v>37.279998999999997</v>
+      </c>
+      <c r="C376" t="n">
+        <v>56.784477000000003</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c s="2" r="A377" t="n">
+        <v>41545.31539351852</v>
+      </c>
+      <c r="B377" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C377" t="n">
+        <v>56.448867999999997</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c s="2" r="A378" t="n">
+        <v>41545.31622685185</v>
+      </c>
+      <c r="B378" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C378" t="n">
+        <v>56.287083000000003</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c s="2" r="A379" t="n">
+        <v>41545.31707175926</v>
+      </c>
+      <c r="B379" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C379" t="n">
+        <v>56.247692000000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c s="2" r="A380" t="n">
+        <v>41545.31790509259</v>
+      </c>
+      <c r="B380" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C380" t="n">
+        <v>56.151950999999997</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c s="2" r="A381" t="n">
+        <v>41545.31875</v>
+      </c>
+      <c r="B381" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C381" t="n">
+        <v>55.805053999999998</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c s="2" r="A382" t="n">
+        <v>41545.31959490741</v>
+      </c>
+      <c r="B382" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C382" t="n">
+        <v>55.798099999999998</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c s="2" r="A383" t="n">
+        <v>41545.32042824074</v>
+      </c>
+      <c r="B383" t="n">
+        <v>37.259998000000003</v>
+      </c>
+      <c r="C383" t="n">
+        <v>55.908344</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c s="2" r="A384" t="n">
+        <v>41545.32127314815</v>
+      </c>
+      <c r="B384" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C384" t="n">
+        <v>55.538291999999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c s="2" r="A385" t="n">
+        <v>41545.32210648148</v>
+      </c>
+      <c r="B385" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C385" t="n">
+        <v>55.469130999999997</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c s="2" r="A386" t="n">
+        <v>41545.32295138889</v>
+      </c>
+      <c r="B386" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C386" t="n">
+        <v>61.348011</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c s="2" r="A387" t="n">
+        <v>41545.32378472222</v>
+      </c>
+      <c r="B387" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C387" t="n">
+        <v>62.288116000000002</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c s="2" r="A388" t="n">
+        <v>41545.32462962963</v>
+      </c>
+      <c r="B388" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C388" t="n">
+        <v>60.861938000000002</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c s="2" r="A389" t="n">
+        <v>41545.325474537036</v>
+      </c>
+      <c r="B389" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C389" t="n">
+        <v>59.856231999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c s="2" r="A390" t="n">
+        <v>41545.32630787037</v>
+      </c>
+      <c r="B390" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C390" t="n">
+        <v>59.438488</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c s="2" r="A391" t="n">
+        <v>41545.327152777776</v>
+      </c>
+      <c r="B391" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C391" t="n">
+        <v>59.171906</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c s="2" r="A392" t="n">
+        <v>41545.32798611111</v>
+      </c>
+      <c r="B392" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C392" t="n">
+        <v>58.971801999999997</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c s="2" r="A393" t="n">
+        <v>41545.328831018516</v>
+      </c>
+      <c r="B393" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C393" t="n">
+        <v>58.377926000000002</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c s="2" r="A394" t="n">
+        <v>41545.329664351855</v>
+      </c>
+      <c r="B394" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C394" t="n">
+        <v>58.118789999999997</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c s="2" r="A395" t="n">
+        <v>41545.330509259256</v>
+      </c>
+      <c r="B395" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C395" t="n">
+        <v>57.945469000000003</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c s="2" r="A396" t="n">
+        <v>41545.331342592595</v>
+      </c>
+      <c r="B396" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C396" t="n">
+        <v>57.511707000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c s="2" r="A397" t="n">
+        <v>41545.3321875</v>
+      </c>
+      <c r="B397" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C397" t="n">
+        <v>57.194125999999997</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c s="2" r="A398" t="n">
+        <v>41545.333020833335</v>
+      </c>
+      <c r="B398" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C398" t="n">
+        <v>57.149090000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c s="2" r="A399" t="n">
+        <v>41545.333865740744</v>
+      </c>
+      <c r="B399" t="n">
+        <v>37.139999000000003</v>
+      </c>
+      <c r="C399" t="n">
+        <v>56.99033</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c s="2" r="A400" t="n">
+        <v>41545.334699074076</v>
+      </c>
+      <c r="B400" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C400" t="n">
+        <v>56.645645000000002</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c s="2" r="A401" t="n">
+        <v>41545.335543981484</v>
+      </c>
+      <c r="B401" t="n">
+        <v>37.630001</v>
+      </c>
+      <c r="C401" t="n">
+        <v>55.99239</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c s="2" r="A402" t="n">
+        <v>41545.336388888885</v>
+      </c>
+      <c r="B402" t="n">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="C402" t="n">
+        <v>55.792060999999997</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c s="2" r="A403" t="n">
+        <v>41545.337222222224</v>
+      </c>
+      <c r="B403" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C403" t="n">
+        <v>55.876922999999998</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c s="2" r="A404" t="n">
+        <v>41545.33806712963</v>
+      </c>
+      <c r="B404" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C404" t="n">
+        <v>56.118164</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c s="2" r="A405" t="n">
+        <v>41545.338900462964</v>
+      </c>
+      <c r="B405" t="n">
+        <v>37.209999000000003</v>
+      </c>
+      <c r="C405" t="n">
+        <v>56.289963</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c s="2" r="A406" t="n">
+        <v>41545.33974537037</v>
+      </c>
+      <c r="B406" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C406" t="n">
+        <v>55.977364000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c s="2" r="A407" t="n">
+        <v>41545.340578703705</v>
+      </c>
+      <c r="B407" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C407" t="n">
+        <v>55.323078000000002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c s="2" r="A408" t="n">
+        <v>41545.34142361111</v>
+      </c>
+      <c r="B408" t="n">
+        <v>37.509998000000003</v>
+      </c>
+      <c r="C408" t="n">
+        <v>56.202545000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c s="2" r="A409" t="n">
+        <v>41545.342256944445</v>
+      </c>
+      <c r="B409" t="n">
+        <v>37.560001</v>
+      </c>
+      <c r="C409" t="n">
+        <v>64.165351999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c s="2" r="A410" t="n">
+        <v>41545.34310185185</v>
+      </c>
+      <c r="B410" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C410" t="n">
+        <v>62.467941000000003</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c s="2" r="A411" t="n">
+        <v>41545.343935185185</v>
+      </c>
+      <c r="B411" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C411" t="n">
+        <v>61.572792</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c s="2" r="A412" t="n">
+        <v>41545.34478009259</v>
+      </c>
+      <c r="B412" t="n">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="C412" t="n">
+        <v>60.930785999999998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c s="2" r="A413" t="n">
+        <v>41545.345625</v>
+      </c>
+      <c r="B413" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C413" t="n">
+        <v>60.002968000000003</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c s="2" r="A414" t="n">
+        <v>41545.34645833333</v>
+      </c>
+      <c r="B414" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C414" t="n">
+        <v>59.403702000000003</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c s="2" r="A415" t="n">
+        <v>41545.34730324074</v>
+      </c>
+      <c r="B415" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C415" t="n">
+        <v>59.141517999999998</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c s="2" r="A416" t="n">
+        <v>41545.34813657407</v>
+      </c>
+      <c r="B416" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="C416" t="n">
+        <v>58.876091000000002</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c s="2" r="A417" t="n">
+        <v>41545.34898148148</v>
+      </c>
+      <c r="B417" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C417" t="n">
+        <v>58.287685000000003</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c s="2" r="A418" t="n">
+        <v>41545.349814814814</v>
+      </c>
+      <c r="B418" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C418" t="n">
+        <v>57.902965999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c s="2" r="A419" t="n">
+        <v>41545.35065972222</v>
+      </c>
+      <c r="B419" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C419" t="n">
+        <v>57.860774999999997</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c s="2" r="A420" t="n">
+        <v>41545.351493055554</v>
+      </c>
+      <c r="B420" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C420" t="n">
+        <v>57.853565000000003</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c s="2" r="A421" t="n">
+        <v>41545.35233796296</v>
+      </c>
+      <c r="B421" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C421" t="n">
+        <v>57.287899000000003</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c s="2" r="A422" t="n">
+        <v>41545.35318287037</v>
+      </c>
+      <c r="B422" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C422" t="n">
+        <v>57.094608000000001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c s="2" r="A423" t="n">
+        <v>41545.3540162037</v>
+      </c>
+      <c r="B423" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C423" t="n">
+        <v>57.020184</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c s="2" r="A424" t="n">
+        <v>41545.35486111111</v>
+      </c>
+      <c r="B424" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C424" t="n">
+        <v>56.830916999999999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c s="2" r="A425" t="n">
+        <v>41545.35569444444</v>
+      </c>
+      <c r="B425" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C425" t="n">
+        <v>56.479796999999998</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c s="2" r="A426" t="n">
+        <v>41545.35653935185</v>
+      </c>
+      <c r="B426" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C426" t="n">
+        <v>56.439017999999997</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c s="2" r="A427" t="n">
+        <v>41545.35737268518</v>
+      </c>
+      <c r="B427" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C427" t="n">
+        <v>56.372925000000002</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c s="2" r="A428" t="n">
+        <v>41545.35821759259</v>
+      </c>
+      <c r="B428" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C428" t="n">
+        <v>56.058948999999998</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c s="2" r="A429" t="n">
+        <v>41545.35905092592</v>
+      </c>
+      <c r="B429" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C429" t="n">
+        <v>56.019547000000003</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c s="2" r="A430" t="n">
+        <v>41545.35989583333</v>
+      </c>
+      <c r="B430" t="n">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="C430" t="n">
+        <v>55.974570999999997</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c s="2" r="A431" t="n">
+        <v>41545.36074074074</v>
+      </c>
+      <c r="B431" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C431" t="n">
+        <v>55.661301000000002</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c s="2" r="A432" t="n">
+        <v>41545.36157407407</v>
+      </c>
+      <c r="B432" t="n">
+        <v>37.540000999999997</v>
+      </c>
+      <c r="C432" t="n">
+        <v>55.134585999999999</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c s="2" r="A433" t="n">
+        <v>41545.36241898148</v>
+      </c>
+      <c r="B433" t="n">
+        <v>37.650002000000001</v>
+      </c>
+      <c r="C433" t="n">
+        <v>60.229210000000002</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c s="2" r="A434" t="n">
+        <v>41545.36325231481</v>
+      </c>
+      <c r="B434" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="C434" t="n">
+        <v>63.002398999999997</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c s="2" r="A435" t="n">
+        <v>41545.36409722222</v>
+      </c>
+      <c r="B435" t="n">
+        <v>37.580002</v>
+      </c>
+      <c r="C435" t="n">
+        <v>61.60812</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c s="2" r="A436" t="n">
+        <v>41545.36493055556</v>
+      </c>
+      <c r="B436" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C436" t="n">
+        <v>60.807876999999998</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c s="2" r="A437" t="n">
+        <v>41545.36577546296</v>
+      </c>
+      <c r="B437" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C437" t="n">
+        <v>60.319893</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c s="2" r="A438" t="n">
+        <v>41545.3666087963</v>
+      </c>
+      <c r="B438" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C438" t="n">
+        <v>59.959285999999999</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c s="2" r="A439" t="n">
+        <v>41545.3674537037</v>
+      </c>
+      <c r="B439" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C439" t="n">
+        <v>59.425156000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c s="2" r="A440" t="n">
+        <v>41545.36829861111</v>
+      </c>
+      <c r="B440" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C440" t="n">
+        <v>58.826934999999999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c s="2" r="A441" t="n">
+        <v>41545.36913194445</v>
+      </c>
+      <c r="B441" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C441" t="n">
+        <v>58.504440000000002</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c s="2" r="A442" t="n">
+        <v>41545.36997685185</v>
+      </c>
+      <c r="B442" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C442" t="n">
+        <v>58.267349000000003</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c s="2" r="A443" t="n">
+        <v>41545.37081018519</v>
+      </c>
+      <c r="B443" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="C443" t="n">
+        <v>57.771670999999998</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c s="2" r="A444" t="n">
+        <v>41545.37165509259</v>
+      </c>
+      <c r="B444" t="n">
+        <v>37.439999</v>
+      </c>
+      <c r="C444" t="n">
+        <v>57.548167999999997</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c s="2" r="A445" t="n">
+        <v>41545.37248842593</v>
+      </c>
+      <c r="B445" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C445" t="n">
+        <v>57.410919</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c s="2" r="A446" t="n">
+        <v>41545.37333333334</v>
+      </c>
+      <c r="B446" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C446" t="n">
+        <v>57.335121000000001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c s="2" r="A447" t="n">
+        <v>41545.37416666667</v>
+      </c>
+      <c r="B447" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C447" t="n">
+        <v>57.083224999999999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c s="2" r="A448" t="n">
+        <v>41545.37501157408</v>
+      </c>
+      <c r="B448" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C448" t="n">
+        <v>56.732658000000001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c s="2" r="A449" t="n">
+        <v>41545.37585648148</v>
+      </c>
+      <c r="B449" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="C449" t="n">
+        <v>56.360270999999997</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c s="2" r="A450" t="n">
+        <v>41545.37668981482</v>
+      </c>
+      <c r="B450" t="n">
+        <v>37.490001999999997</v>
+      </c>
+      <c r="C450" t="n">
+        <v>56.134953000000003</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c s="2" r="A451" t="n">
+        <v>41545.377534722225</v>
+      </c>
+      <c r="B451" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C451" t="n">
+        <v>56.032119999999999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c s="2" r="A452" t="n">
+        <v>41545.37836805556</v>
+      </c>
+      <c r="B452" t="n">
+        <v>37.360000999999997</v>
+      </c>
+      <c r="C452" t="n">
+        <v>56.051960000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c s="2" r="A453" t="n">
+        <v>41545.379212962966</v>
+      </c>
+      <c r="B453" t="n">
+        <v>37.310001</v>
+      </c>
+      <c r="C453" t="n">
+        <v>56.109768000000003</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c s="2" r="A454" t="n">
+        <v>41545.3800462963</v>
+      </c>
+      <c r="B454" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C454" t="n">
+        <v>55.793922000000002</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c s="2" r="A455" t="n">
+        <v>41545.380891203706</v>
+      </c>
+      <c r="B455" t="n">
+        <v>37.330002</v>
+      </c>
+      <c r="C455" t="n">
+        <v>55.755909000000003</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c s="2" r="A456" t="n">
+        <v>41545.38172453704</v>
+      </c>
+      <c r="B456" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C456" t="n">
+        <v>55.470516000000003</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c s="2" r="A457" t="n">
+        <v>41545.382569444446</v>
+      </c>
+      <c r="B457" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C457" t="n">
+        <v>55.635756999999998</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c s="2" r="A458" t="n">
+        <v>41545.38340277778</v>
+      </c>
+      <c r="B458" t="n">
+        <v>37.470001000000003</v>
+      </c>
+      <c r="C458" t="n">
+        <v>64.181915000000004</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c s="2" r="A459" t="n">
+        <v>41545.384247685186</v>
+      </c>
+      <c r="B459" t="n">
+        <v>37.380001</v>
+      </c>
+      <c r="C459" t="n">
+        <v>62.424197999999997</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c s="2" r="A460" t="n">
+        <v>41545.385092592594</v>
+      </c>
+      <c r="B460" t="n">
+        <v>37.279998999999997</v>
+      </c>
+      <c r="C460" t="n">
+        <v>61.562038000000001</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c s="2" r="A461" t="n">
+        <v>41545.385925925926</v>
+      </c>
+      <c r="B461" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C461" t="n">
+        <v>60.448017</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c s="2" r="A462" t="n">
+        <v>41545.386770833335</v>
+      </c>
+      <c r="B462" t="n">
+        <v>37.459999000000003</v>
+      </c>
+      <c r="C462" t="n">
+        <v>59.692920999999998</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c s="2" r="A463" t="n">
+        <v>41545.387604166666</v>
+      </c>
+      <c r="B463" t="n">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="C463" t="n">
+        <v>59.271903999999999</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c s="2" r="A464" t="n">
+        <v>41545.388449074075</v>
+      </c>
+      <c r="B464" t="n">
+        <v>37.340000000000003</v>
+      </c>
+      <c r="C464" t="n">
+        <v>59.070399999999999</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c s="2" r="A465" t="n">
+        <v>41545.38928240741</v>
+      </c>
+      <c r="B465" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C465" t="n">
+        <v>58.504440000000002</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c s="2" r="A466" t="n">
+        <v>41545.390127314815</v>
+      </c>
+      <c r="B466" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C466" t="n">
+        <v>58.184330000000003</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c s="2" r="A467" t="n">
+        <v>41545.39096064815</v>
+      </c>
+      <c r="B467" t="n">
+        <v>37.349997999999999</v>
+      </c>
+      <c r="C467" t="n">
+        <v>57.952694000000001</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c s="2" r="A468" t="n">
+        <v>41545.391805555555</v>
+      </c>
+      <c r="B468" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C468" t="n">
+        <v>57.669552000000003</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c s="2" r="A469" t="n">
+        <v>41545.39265046296</v>
+      </c>
+      <c r="B469" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C469" t="n">
+        <v>57.255695000000003</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c s="2" r="A470" t="n">
+        <v>41545.393483796295</v>
+      </c>
+      <c r="B470" t="n">
+        <v>37.400002000000001</v>
+      </c>
+      <c r="C470" t="n">
+        <v>57.091763</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c s="2" r="A471" t="n">
+        <v>41545.394328703704</v>
+      </c>
+      <c r="B471" t="n">
+        <v>37.270000000000003</v>
+      </c>
+      <c r="C471" t="n">
+        <v>57.137690999999997</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c s="2" r="A472" t="n">
+        <v>41545.39517361111</v>
+      </c>
+      <c r="B472" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C472" t="n">
+        <v>56.703189999999999</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c s="2" r="A473" t="n">
+        <v>41545.396006944444</v>
+      </c>
+      <c r="B473" t="n">
+        <v>37.610000999999997</v>
+      </c>
+      <c r="C473" t="n">
+        <v>56.022038000000002</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c s="2" r="A474" t="n">
+        <v>41545.39685185185</v>
+      </c>
+      <c r="B474" t="n">
+        <v>37.610000999999997</v>
+      </c>
+      <c r="C474" t="n">
+        <v>55.762363000000001</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c s="2" r="A475" t="n">
+        <v>41545.397685185184</v>
+      </c>
+      <c r="B475" t="n">
+        <v>37.529998999999997</v>
+      </c>
+      <c r="C475" t="n">
+        <v>55.751246999999999</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c s="2" r="A476" t="n">
+        <v>41545.39853009259</v>
+      </c>
+      <c r="B476" t="n">
+        <v>37.419998</v>
+      </c>
+      <c r="C476" t="n">
+        <v>55.930655999999999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c s="2" r="A477" t="n">
+        <v>41545.399363425924</v>
+      </c>
+      <c r="B477" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C477" t="n">
+        <v>56.042178999999997</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c s="2" r="A478" t="n">
+        <v>41545.40020833333</v>
+      </c>
+      <c r="B478" t="n">
+        <v>37.299999</v>
+      </c>
+      <c r="C478" t="n">
+        <v>55.881500000000003</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c s="2" r="A479" t="n">
+        <v>41545.40105324074</v>
+      </c>
+      <c r="B479" t="n">
+        <v>37.450001</v>
+      </c>
+      <c r="C479" t="n">
+        <v>55.350104999999999</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c s="2" r="A480" t="n">
+        <v>41545.40188657407</v>
+      </c>
+      <c r="B480" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C480" t="n">
+        <v>56.330680999999998</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c s="2" r="A481" t="n">
+        <v>41545.40273148148</v>
+      </c>
+      <c r="B481" t="n">
+        <v>37.549999</v>
+      </c>
+      <c r="C481" t="n">
+        <v>61.540591999999997</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c s="2" r="A482" t="n">
+        <v>41545.40356481481</v>
+      </c>
+      <c r="B482" t="n">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C482" t="n">
+        <v>60.235385999999998</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c s="2" r="A483" t="n">
+        <v>41545.40440972222</v>
+      </c>
+      <c r="B483" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C483" t="n">
+        <v>59.650722999999999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c s="2" r="A484" t="n">
+        <v>41545.40524305555</v>
+      </c>
+      <c r="B484" t="n">
+        <v>37.290000999999997</v>
+      </c>
+      <c r="C484" t="n">
+        <v>59.381492999999999</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c s="2" r="A485" t="n">
+        <v>41545.40608796296</v>
+      </c>
+      <c r="B485" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C485" t="n">
+        <v>58.755741</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c s="2" r="A486" t="n">
+        <v>41545.40692129629</v>
+      </c>
+      <c r="B486" t="n">
+        <v>37.389999000000003</v>
+      </c>
+      <c r="C486" t="n">
+        <v>58.278968999999996</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c s="2" r="A487" t="n">
+        <v>41545.4077662037</v>
+      </c>
+      <c r="B487" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C487" t="n">
+        <v>58.083846999999999</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c s="2" r="A488" t="n">
+        <v>41545.40859953704</v>
+      </c>
+      <c r="B488" t="n">
+        <v>37.369999</v>
+      </c>
+      <c r="C488" t="n">
+        <v>57.827244</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>